--- a/public/templates/plantillaActivosVirtuales.xlsx
+++ b/public/templates/plantillaActivosVirtuales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\jrrmelecio\proyects\itc-pld\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrrme\Downloads\Actualizar Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04066129-D283-46AD-9B32-A9D6712B77C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE572CB4-FE0E-46EF-A1E0-A7DE09D92009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,26 +20,26 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="actividadec">Configuracion!$O$3:$O$169</definedName>
+    <definedName name="actividadec">Configuracion!$P$3:$P$169</definedName>
     <definedName name="actividadeconomica">[1]Hoja2!$E$3:$E$169</definedName>
-    <definedName name="creditos">Configuracion!$AR$3:$AR$5</definedName>
-    <definedName name="estado">Configuracion!$AJ$3:$AJ$34</definedName>
-    <definedName name="figuraactividad">Configuracion!$AV$3:$AV$5</definedName>
-    <definedName name="figuracliente">Configuracion!$AT$3:$AT$4</definedName>
-    <definedName name="formapago">Configuracion!$AX$3:$AX$7</definedName>
-    <definedName name="garantia">Configuracion!$AD$3:$AD$15</definedName>
-    <definedName name="giro">Configuracion!$R$3:$R$138</definedName>
-    <definedName name="ifinanciera">Configuracion!$AP$3:$AP$42</definedName>
-    <definedName name="instrumento">Configuracion!$X$3:$X$19</definedName>
-    <definedName name="moneda">Configuracion!$Z$3:$Z$186</definedName>
-    <definedName name="pais">Configuracion!$M$3:$M$251</definedName>
+    <definedName name="creditos">Configuracion!$AS$3:$AS$5</definedName>
+    <definedName name="estado">Configuracion!$AK$3:$AK$34</definedName>
+    <definedName name="figuraactividad">Configuracion!$AW$3:$AW$5</definedName>
+    <definedName name="figuracliente">Configuracion!$AU$3:$AU$4</definedName>
+    <definedName name="formapago">Configuracion!$AY$3:$AY$7</definedName>
+    <definedName name="garantia">Configuracion!$AE$3:$AE$15</definedName>
+    <definedName name="giro">Configuracion!$S$3:$S$138</definedName>
+    <definedName name="ifinanciera">Configuracion!$AQ$3:$AQ$42</definedName>
+    <definedName name="instrumento">Configuracion!$Y$3:$Y$19</definedName>
+    <definedName name="moneda">Configuracion!$AA$3:$AA$186</definedName>
+    <definedName name="pais">Configuracion!$N$3:$N$251</definedName>
     <definedName name="país">[1]Hoja2!$C$3:$C$251</definedName>
-    <definedName name="sino">Configuracion!$AF$3:$AF$4</definedName>
-    <definedName name="tercero">Configuracion!$AN$3:$AN$5</definedName>
-    <definedName name="tipobien">Configuracion!$AH$3:$AH$11</definedName>
-    <definedName name="tipocre">Configuracion!$AB$3:$AB$4</definedName>
-    <definedName name="tipodesarrollo">Configuracion!$AL$3:$AL$8</definedName>
-    <definedName name="tipoinmueble">Configuracion!$T$3:$T$21</definedName>
+    <definedName name="sino">Configuracion!$AG$3:$AG$4</definedName>
+    <definedName name="tercero">Configuracion!$AO$3:$AO$5</definedName>
+    <definedName name="tipobien">Configuracion!$AI$3:$AI$11</definedName>
+    <definedName name="tipocre">Configuracion!$AC$3:$AC$4</definedName>
+    <definedName name="tipodesarrollo">Configuracion!$AM$3:$AM$8</definedName>
+    <definedName name="tipoinmueble">Configuracion!$U$3:$U$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="1313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="1315">
   <si>
     <t>Forma de pago</t>
   </si>
@@ -3998,6 +3998,12 @@
   </si>
   <si>
     <t>Nombre del Banco</t>
+  </si>
+  <si>
+    <t>route_param</t>
+  </si>
+  <si>
+    <t>virtual_assets</t>
   </si>
 </sst>
 </file>
@@ -4361,6 +4367,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4374,15 +4389,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6461,7 +6467,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:CW104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BJ93" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="BL115" sqref="BL115"/>
     </sheetView>
   </sheetViews>
@@ -6556,264 +6562,264 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="23" t="s">
         <v>958</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24" t="s">
         <v>950</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23"/>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="23"/>
-      <c r="AO1" s="23"/>
-      <c r="AP1" s="23"/>
-      <c r="AQ1" s="23"/>
-      <c r="AR1" s="23"/>
-      <c r="AS1" s="23"/>
-      <c r="AT1" s="23"/>
-      <c r="AU1" s="23"/>
-      <c r="AV1" s="23"/>
-      <c r="AW1" s="24"/>
-      <c r="AX1" s="22" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="26"/>
+      <c r="AP1" s="26"/>
+      <c r="AQ1" s="26"/>
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="26"/>
+      <c r="AT1" s="26"/>
+      <c r="AU1" s="26"/>
+      <c r="AV1" s="26"/>
+      <c r="AW1" s="27"/>
+      <c r="AX1" s="25" t="s">
         <v>951</v>
       </c>
-      <c r="AY1" s="22"/>
-      <c r="AZ1" s="22"/>
-      <c r="BA1" s="22"/>
-      <c r="BB1" s="22"/>
-      <c r="BC1" s="22"/>
-      <c r="BD1" s="22"/>
-      <c r="BE1" s="22"/>
-      <c r="BF1" s="22"/>
-      <c r="BG1" s="22"/>
-      <c r="BH1" s="22"/>
-      <c r="BI1" s="22"/>
-      <c r="BJ1" s="22"/>
-      <c r="BK1" s="22"/>
-      <c r="BL1" s="25" t="s">
+      <c r="AY1" s="25"/>
+      <c r="AZ1" s="25"/>
+      <c r="BA1" s="25"/>
+      <c r="BB1" s="25"/>
+      <c r="BC1" s="25"/>
+      <c r="BD1" s="25"/>
+      <c r="BE1" s="25"/>
+      <c r="BF1" s="25"/>
+      <c r="BG1" s="25"/>
+      <c r="BH1" s="25"/>
+      <c r="BI1" s="25"/>
+      <c r="BJ1" s="25"/>
+      <c r="BK1" s="25"/>
+      <c r="BL1" s="20" t="s">
         <v>954</v>
       </c>
-      <c r="BM1" s="26"/>
-      <c r="BN1" s="26"/>
-      <c r="BO1" s="26"/>
-      <c r="BP1" s="26"/>
-      <c r="BQ1" s="26"/>
-      <c r="BR1" s="26"/>
-      <c r="BS1" s="26"/>
-      <c r="BT1" s="26"/>
-      <c r="BU1" s="25" t="s">
+      <c r="BM1" s="21"/>
+      <c r="BN1" s="21"/>
+      <c r="BO1" s="21"/>
+      <c r="BP1" s="21"/>
+      <c r="BQ1" s="21"/>
+      <c r="BR1" s="21"/>
+      <c r="BS1" s="21"/>
+      <c r="BT1" s="21"/>
+      <c r="BU1" s="20" t="s">
         <v>954</v>
       </c>
-      <c r="BV1" s="26"/>
-      <c r="BW1" s="26"/>
-      <c r="BX1" s="26"/>
-      <c r="BY1" s="26"/>
-      <c r="BZ1" s="26"/>
-      <c r="CA1" s="26"/>
-      <c r="CB1" s="26"/>
-      <c r="CC1" s="25" t="s">
+      <c r="BV1" s="21"/>
+      <c r="BW1" s="21"/>
+      <c r="BX1" s="21"/>
+      <c r="BY1" s="21"/>
+      <c r="BZ1" s="21"/>
+      <c r="CA1" s="21"/>
+      <c r="CB1" s="21"/>
+      <c r="CC1" s="20" t="s">
         <v>954</v>
       </c>
-      <c r="CD1" s="26"/>
-      <c r="CE1" s="26"/>
-      <c r="CF1" s="26"/>
-      <c r="CG1" s="26"/>
-      <c r="CH1" s="26"/>
-      <c r="CI1" s="26"/>
-      <c r="CJ1" s="26"/>
-      <c r="CK1" s="25" t="s">
+      <c r="CD1" s="21"/>
+      <c r="CE1" s="21"/>
+      <c r="CF1" s="21"/>
+      <c r="CG1" s="21"/>
+      <c r="CH1" s="21"/>
+      <c r="CI1" s="21"/>
+      <c r="CJ1" s="21"/>
+      <c r="CK1" s="20" t="s">
         <v>954</v>
       </c>
-      <c r="CL1" s="26"/>
-      <c r="CM1" s="26"/>
-      <c r="CN1" s="26"/>
-      <c r="CO1" s="26"/>
-      <c r="CP1" s="26"/>
-      <c r="CQ1" s="26"/>
-      <c r="CR1" s="26"/>
-      <c r="CS1" s="26"/>
-      <c r="CT1" s="26"/>
-      <c r="CU1" s="26"/>
-      <c r="CV1" s="26"/>
-      <c r="CW1" s="26"/>
+      <c r="CL1" s="21"/>
+      <c r="CM1" s="21"/>
+      <c r="CN1" s="21"/>
+      <c r="CO1" s="21"/>
+      <c r="CP1" s="21"/>
+      <c r="CQ1" s="21"/>
+      <c r="CR1" s="21"/>
+      <c r="CS1" s="21"/>
+      <c r="CT1" s="21"/>
+      <c r="CU1" s="21"/>
+      <c r="CV1" s="21"/>
+      <c r="CW1" s="21"/>
     </row>
     <row r="2" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="23" t="s">
         <v>959</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24" t="s">
         <v>973</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="21" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="24" t="s">
         <v>935</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="20" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="23" t="s">
         <v>940</v>
       </c>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20" t="s">
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23" t="s">
         <v>912</v>
       </c>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="21" t="s">
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="24" t="s">
         <v>944</v>
       </c>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="20" t="s">
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="23" t="s">
         <v>914</v>
       </c>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20" t="s">
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23" t="s">
         <v>921</v>
       </c>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="20"/>
-      <c r="AR2" s="20"/>
-      <c r="AS2" s="20"/>
-      <c r="AT2" s="20"/>
-      <c r="AU2" s="20" t="s">
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="23"/>
+      <c r="AS2" s="23"/>
+      <c r="AT2" s="23"/>
+      <c r="AU2" s="23" t="s">
         <v>967</v>
       </c>
-      <c r="AV2" s="20"/>
-      <c r="AW2" s="20"/>
-      <c r="AX2" s="20" t="s">
+      <c r="AV2" s="23"/>
+      <c r="AW2" s="23"/>
+      <c r="AX2" s="23" t="s">
         <v>909</v>
       </c>
-      <c r="AY2" s="20"/>
-      <c r="AZ2" s="20"/>
-      <c r="BA2" s="20"/>
-      <c r="BB2" s="20"/>
-      <c r="BC2" s="20"/>
-      <c r="BD2" s="20"/>
-      <c r="BE2" s="20" t="s">
+      <c r="AY2" s="23"/>
+      <c r="AZ2" s="23"/>
+      <c r="BA2" s="23"/>
+      <c r="BB2" s="23"/>
+      <c r="BC2" s="23"/>
+      <c r="BD2" s="23"/>
+      <c r="BE2" s="23" t="s">
         <v>911</v>
       </c>
-      <c r="BF2" s="20"/>
-      <c r="BG2" s="20"/>
-      <c r="BH2" s="20"/>
-      <c r="BI2" s="20" t="s">
+      <c r="BF2" s="23"/>
+      <c r="BG2" s="23"/>
+      <c r="BH2" s="23"/>
+      <c r="BI2" s="23" t="s">
         <v>912</v>
       </c>
-      <c r="BJ2" s="20"/>
-      <c r="BK2" s="21"/>
-      <c r="BL2" s="25" t="s">
+      <c r="BJ2" s="23"/>
+      <c r="BK2" s="24"/>
+      <c r="BL2" s="20" t="s">
         <v>1230</v>
       </c>
-      <c r="BM2" s="26"/>
-      <c r="BN2" s="26"/>
-      <c r="BO2" s="26"/>
-      <c r="BP2" s="26"/>
-      <c r="BQ2" s="26"/>
-      <c r="BR2" s="26"/>
-      <c r="BS2" s="26"/>
-      <c r="BT2" s="26"/>
-      <c r="BU2" s="25" t="s">
+      <c r="BM2" s="21"/>
+      <c r="BN2" s="21"/>
+      <c r="BO2" s="21"/>
+      <c r="BP2" s="21"/>
+      <c r="BQ2" s="21"/>
+      <c r="BR2" s="21"/>
+      <c r="BS2" s="21"/>
+      <c r="BT2" s="21"/>
+      <c r="BU2" s="20" t="s">
         <v>1231</v>
       </c>
-      <c r="BV2" s="26"/>
-      <c r="BW2" s="26"/>
-      <c r="BX2" s="26"/>
-      <c r="BY2" s="26"/>
-      <c r="BZ2" s="26"/>
-      <c r="CA2" s="26"/>
-      <c r="CB2" s="26"/>
-      <c r="CC2" s="25" t="s">
+      <c r="BV2" s="21"/>
+      <c r="BW2" s="21"/>
+      <c r="BX2" s="21"/>
+      <c r="BY2" s="21"/>
+      <c r="BZ2" s="21"/>
+      <c r="CA2" s="21"/>
+      <c r="CB2" s="21"/>
+      <c r="CC2" s="20" t="s">
         <v>1234</v>
       </c>
-      <c r="CD2" s="26"/>
-      <c r="CE2" s="26"/>
-      <c r="CF2" s="26"/>
-      <c r="CG2" s="26"/>
-      <c r="CH2" s="26"/>
-      <c r="CI2" s="26"/>
-      <c r="CJ2" s="26"/>
-      <c r="CK2" s="25" t="s">
+      <c r="CD2" s="21"/>
+      <c r="CE2" s="21"/>
+      <c r="CF2" s="21"/>
+      <c r="CG2" s="21"/>
+      <c r="CH2" s="21"/>
+      <c r="CI2" s="21"/>
+      <c r="CJ2" s="21"/>
+      <c r="CK2" s="20" t="s">
         <v>1235</v>
       </c>
-      <c r="CL2" s="26"/>
-      <c r="CM2" s="26"/>
-      <c r="CN2" s="26"/>
-      <c r="CO2" s="27"/>
-      <c r="CP2" s="25" t="s">
+      <c r="CL2" s="21"/>
+      <c r="CM2" s="21"/>
+      <c r="CN2" s="21"/>
+      <c r="CO2" s="22"/>
+      <c r="CP2" s="20" t="s">
         <v>1245</v>
       </c>
-      <c r="CQ2" s="26"/>
-      <c r="CR2" s="26"/>
+      <c r="CQ2" s="21"/>
+      <c r="CR2" s="21"/>
       <c r="CS2" s="19" t="s">
         <v>1247</v>
       </c>
-      <c r="CT2" s="25" t="s">
+      <c r="CT2" s="20" t="s">
         <v>1249</v>
       </c>
-      <c r="CU2" s="27"/>
-      <c r="CV2" s="25" t="s">
+      <c r="CU2" s="22"/>
+      <c r="CV2" s="20" t="s">
         <v>1310</v>
       </c>
-      <c r="CW2" s="26"/>
+      <c r="CW2" s="21"/>
     </row>
     <row r="3" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
@@ -18120,17 +18126,6 @@
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" insertHyperlinks="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <mergeCells count="26">
-    <mergeCell ref="CV2:CW2"/>
-    <mergeCell ref="BU1:CB1"/>
-    <mergeCell ref="BU2:CB2"/>
-    <mergeCell ref="CC1:CJ1"/>
-    <mergeCell ref="CC2:CJ2"/>
-    <mergeCell ref="CK1:CW1"/>
-    <mergeCell ref="BL1:BT1"/>
-    <mergeCell ref="BL2:BT2"/>
-    <mergeCell ref="CK2:CO2"/>
-    <mergeCell ref="CP2:CR2"/>
-    <mergeCell ref="CT2:CU2"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="AU2:AW2"/>
@@ -18146,6 +18141,17 @@
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:Q2"/>
     <mergeCell ref="Z2:AG2"/>
+    <mergeCell ref="BL1:BT1"/>
+    <mergeCell ref="BL2:BT2"/>
+    <mergeCell ref="CK2:CO2"/>
+    <mergeCell ref="CP2:CR2"/>
+    <mergeCell ref="CT2:CU2"/>
+    <mergeCell ref="CV2:CW2"/>
+    <mergeCell ref="BU1:CB1"/>
+    <mergeCell ref="BU2:CB2"/>
+    <mergeCell ref="CC1:CJ1"/>
+    <mergeCell ref="CC2:CJ2"/>
+    <mergeCell ref="CK1:CW1"/>
   </mergeCells>
   <dataValidations xWindow="505" yWindow="413" count="24">
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de llenado" error="No debe de contener espacios ni caracteres especiales." promptTitle="Indicaciones" prompt="El formato debe ser XAXX010101000." sqref="BB4:BB104 L4:L104 AD4:AD104" xr:uid="{B98F17B9-63D0-482A-929E-F8CFD205118A}">
@@ -18240,43 +18246,43 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="505" yWindow="413" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de llenado" error="El campo debe contener máximo 200 dígitos." xr:uid="{4446D76B-C1C3-4883-9790-CEA7B681E33C}">
           <x14:formula1>
-            <xm:f>Configuracion!$G$3:$G$186</xm:f>
+            <xm:f>Configuracion!$H$3:$H$186</xm:f>
           </x14:formula1>
           <xm:sqref>G4:G104</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showErrorMessage="1" errorTitle="Error de llenado" error="Se debe de seleccionar una actividad economica de la lista desplegable." promptTitle="Indicaciones" prompt="Seleccionar una actividad economica de la lista desplegable." xr:uid="{1DA39D14-C346-469E-84C8-81994FB4C4C2}">
           <x14:formula1>
-            <xm:f>Configuracion!$E$3:$E$5</xm:f>
+            <xm:f>Configuracion!$F$3:$F$5</xm:f>
           </x14:formula1>
           <xm:sqref>P4:P104</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de llenado" error="El campo debe contener máximo 18 dígitos." xr:uid="{1EDDC928-6FF6-4459-BFBB-A66794E5DA73}">
           <x14:formula1>
-            <xm:f>Configuracion!$E$3:$E$5</xm:f>
+            <xm:f>Configuracion!$F$3:$F$5</xm:f>
           </x14:formula1>
           <xm:sqref>AF4:AF104</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{5323A859-5187-4796-B8BC-32332B959919}">
           <x14:formula1>
-            <xm:f>Configuracion!$G$3:$G$186</xm:f>
+            <xm:f>Configuracion!$H$3:$H$186</xm:f>
           </x14:formula1>
           <xm:sqref>BN4:BN104 CN4:CN104</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{F3DCDA3A-C16F-468F-9777-BDBF7FF3938F}">
           <x14:formula1>
-            <xm:f>Configuracion!$C$3:$C$53</xm:f>
+            <xm:f>Configuracion!$D$3:$D$53</xm:f>
           </x14:formula1>
-          <xm:sqref>BP4:BP104 BX4:BX104 CF4:CF104 CQ4:CQ104</xm:sqref>
+          <xm:sqref>BP4:BP104 CQ4:CQ104 CF4:CF104 BX4:BX104</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{B24E2862-E658-4692-B9AB-501EAEB1915E}">
           <x14:formula1>
-            <xm:f>Configuracion!$A$3:$A$10</xm:f>
+            <xm:f>Configuracion!$B$3:$B$10</xm:f>
           </x14:formula1>
           <xm:sqref>CM4:CM104</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{199E88A0-E6DE-4AA2-B7E1-597714FCDAA8}">
           <x14:formula1>
-            <xm:f>Configuracion!$BH$3:$BH$59</xm:f>
+            <xm:f>Configuracion!$BI$3:$BI$59</xm:f>
           </x14:formula1>
           <xm:sqref>CU4:CU104</xm:sqref>
         </x14:dataValidation>
@@ -18289,4302 +18295,4309 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A2:BH251"/>
+  <dimension ref="A2:BI251"/>
   <sheetViews>
-    <sheetView topLeftCell="AN27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BH3" sqref="BH3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="50.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1173</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>1163</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AC2" s="7" t="s">
         <v>782</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>799</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="AL2" s="9" t="s">
+      <c r="AM2" s="9" t="s">
         <v>846</v>
       </c>
-      <c r="AN2" s="9" t="s">
+      <c r="AO2" s="9" t="s">
         <v>852</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="AR2" s="9" t="s">
+      <c r="AS2" s="9" t="s">
         <v>896</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
         <v>900</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AW2" t="s">
         <v>903</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="BD2" s="7" t="s">
+      <c r="BE2" s="7" t="s">
         <v>968</v>
       </c>
-      <c r="BF2" s="7" t="s">
+      <c r="BG2" s="7" t="s">
         <v>970</v>
       </c>
-      <c r="BH2" s="7" t="s">
+      <c r="BI2" s="7" t="s">
         <v>1309</v>
       </c>
     </row>
-    <row r="3" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>1174</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>1165</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>979</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>800</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>923</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>10</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>11</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>11</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>12</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>1</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>13</v>
       </c>
-      <c r="Z3" s="6" t="s">
+      <c r="AA3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>783</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>785</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>800</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>802</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>813</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
         <v>847</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AO3" t="s">
         <v>853</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AQ3" t="s">
         <v>894</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AS3" t="s">
         <v>897</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AU3" t="s">
         <v>956</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AW3" t="s">
         <v>901</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AY3" t="s">
         <v>1</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BA3" t="s">
         <v>964</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BC3" t="s">
         <v>785</v>
       </c>
-      <c r="BD3" s="17" t="s">
+      <c r="BE3" s="17" t="s">
         <v>969</v>
       </c>
-      <c r="BF3" s="18" t="s">
+      <c r="BG3" s="18" t="s">
         <v>971</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BI3" t="s">
         <v>1252</v>
       </c>
     </row>
-    <row r="4" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>1238</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>1175</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>1166</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>980</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>801</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>924</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>14</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>15</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>16</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>17</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>18</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>19</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="AA4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>784</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>786</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>801</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>803</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AK4" t="s">
         <v>814</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
         <v>848</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AO4" t="s">
         <v>854</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AQ4" t="s">
         <v>895</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AS4" t="s">
         <v>898</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AU4" t="s">
         <v>957</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AW4" t="s">
         <v>902</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AY4" t="s">
         <v>18</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BA4" t="s">
         <v>965</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BC4" t="s">
         <v>786</v>
       </c>
-      <c r="BF4" s="18" t="s">
+      <c r="BG4" s="18" t="s">
         <v>972</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BI4" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="5" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>1239</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>1176</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>1167</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>981</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>925</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>21</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>22</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>23</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>24</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>25</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>26</v>
       </c>
-      <c r="Z5" s="6" t="s">
+      <c r="AA5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>787</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AI5" t="s">
         <v>804</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AK5" t="s">
         <v>815</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AM5" t="s">
         <v>849</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AO5" t="s">
         <v>120</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AQ5" t="s">
         <v>856</v>
       </c>
-      <c r="AR5" t="s">
+      <c r="AS5" t="s">
         <v>899</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="AW5" t="s">
         <v>904</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AY5" t="s">
         <v>25</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BC5" t="s">
         <v>787</v>
       </c>
-      <c r="BH5" t="s">
+      <c r="BI5" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="6" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>1240</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>1177</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>982</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>926</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>28</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>29</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>30</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>31</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>32</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>33</v>
       </c>
-      <c r="Z6" s="6" t="s">
+      <c r="AA6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>788</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AI6" t="s">
         <v>805</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AK6" t="s">
         <v>816</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AM6" t="s">
         <v>850</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AQ6" t="s">
         <v>857</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="AY6" t="s">
         <v>32</v>
       </c>
-      <c r="BB6" t="s">
+      <c r="BC6" t="s">
         <v>788</v>
       </c>
-      <c r="BH6" t="s">
+      <c r="BI6" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="7" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>1241</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>1178</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>983</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>927</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>35</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>36</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>37</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>38</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>39</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>40</v>
       </c>
-      <c r="Z7" s="6" t="s">
+      <c r="AA7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>789</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AI7" t="s">
         <v>806</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AK7" t="s">
         <v>817</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AM7" t="s">
         <v>851</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="AQ7" t="s">
         <v>858</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="AY7" t="s">
         <v>39</v>
       </c>
-      <c r="BB7" t="s">
+      <c r="BC7" t="s">
         <v>789</v>
       </c>
-      <c r="BH7" t="s">
+      <c r="BI7" t="s">
         <v>1256</v>
       </c>
     </row>
-    <row r="8" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>1242</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>1179</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>984</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>928</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>42</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>43</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>44</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>45</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>46</v>
       </c>
-      <c r="Z8" s="6" t="s">
+      <c r="AA8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>790</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AI8" t="s">
         <v>807</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AK8" t="s">
         <v>818</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AM8" t="s">
         <v>120</v>
       </c>
-      <c r="AP8" t="s">
+      <c r="AQ8" t="s">
         <v>859</v>
       </c>
-      <c r="BB8" t="s">
+      <c r="BC8" t="s">
         <v>790</v>
       </c>
-      <c r="BH8" t="s">
+      <c r="BI8" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="9" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>1243</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>1180</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>985</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>929</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>48</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>49</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>50</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>51</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>52</v>
       </c>
-      <c r="Z9" s="6" t="s">
+      <c r="AA9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>791</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AI9" t="s">
         <v>808</v>
       </c>
-      <c r="AJ9" t="s">
+      <c r="AK9" t="s">
         <v>819</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="AQ9" t="s">
         <v>860</v>
       </c>
-      <c r="BB9" t="s">
+      <c r="BC9" t="s">
         <v>791</v>
       </c>
-      <c r="BH9" t="s">
+      <c r="BI9" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="10" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>1244</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>1181</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>986</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>930</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>54</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>55</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>56</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>57</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>2</v>
       </c>
-      <c r="Z10" s="6" t="s">
+      <c r="AA10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>792</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AI10" t="s">
         <v>809</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AK10" t="s">
         <v>820</v>
       </c>
-      <c r="AP10" t="s">
+      <c r="AQ10" t="s">
         <v>861</v>
       </c>
-      <c r="BB10" t="s">
+      <c r="BC10" t="s">
         <v>792</v>
       </c>
-      <c r="BH10" t="s">
+      <c r="BI10" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="11" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+    <row r="11" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
         <v>1182</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>987</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>931</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>59</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>60</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>61</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>62</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>63</v>
       </c>
-      <c r="Z11" s="6" t="s">
+      <c r="AA11" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>793</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="AI11" t="s">
         <v>797</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AK11" t="s">
         <v>821</v>
       </c>
-      <c r="AP11" t="s">
+      <c r="AQ11" t="s">
         <v>862</v>
       </c>
-      <c r="BB11" t="s">
+      <c r="BC11" t="s">
         <v>793</v>
       </c>
-      <c r="BH11" t="s">
+      <c r="BI11" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="12" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+    <row r="12" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
         <v>1183</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>988</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>932</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>65</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>66</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>67</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>68</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>69</v>
       </c>
-      <c r="Z12" s="6" t="s">
+      <c r="AA12" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>794</v>
       </c>
-      <c r="AJ12" t="s">
+      <c r="AK12" t="s">
         <v>822</v>
       </c>
-      <c r="AP12" t="s">
+      <c r="AQ12" t="s">
         <v>863</v>
       </c>
-      <c r="BB12" t="s">
+      <c r="BC12" t="s">
         <v>794</v>
       </c>
-      <c r="BH12" t="s">
+      <c r="BI12" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="13" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+    <row r="13" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
         <v>1184</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>989</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>933</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>71</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>72</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>73</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>74</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>75</v>
       </c>
-      <c r="Z13" s="6" t="s">
+      <c r="AA13" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>795</v>
       </c>
-      <c r="AJ13" t="s">
+      <c r="AK13" t="s">
         <v>823</v>
       </c>
-      <c r="AP13" t="s">
+      <c r="AQ13" t="s">
         <v>864</v>
       </c>
-      <c r="BB13" t="s">
+      <c r="BC13" t="s">
         <v>795</v>
       </c>
-      <c r="BH13" t="s">
+      <c r="BI13" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="14" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+    <row r="14" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
         <v>1185</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>990</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>934</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>77</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>78</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>79</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>80</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>81</v>
       </c>
-      <c r="Z14" s="6" t="s">
+      <c r="AA14" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>796</v>
       </c>
-      <c r="AJ14" t="s">
+      <c r="AK14" t="s">
         <v>824</v>
       </c>
-      <c r="AP14" t="s">
+      <c r="AQ14" t="s">
         <v>865</v>
       </c>
-      <c r="BB14" t="s">
+      <c r="BC14" t="s">
         <v>796</v>
       </c>
-      <c r="BH14" t="s">
+      <c r="BI14" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="15" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+    <row r="15" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
         <v>1186</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>991</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>83</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>84</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>85</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>86</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>87</v>
       </c>
-      <c r="Z15" s="6" t="s">
+      <c r="AA15" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>797</v>
       </c>
-      <c r="AJ15" t="s">
+      <c r="AK15" t="s">
         <v>825</v>
       </c>
-      <c r="AP15" t="s">
+      <c r="AQ15" t="s">
         <v>866</v>
       </c>
-      <c r="BB15" t="s">
+      <c r="BC15" t="s">
         <v>797</v>
       </c>
-      <c r="BH15" t="s">
+      <c r="BI15" t="s">
         <v>1264</v>
       </c>
     </row>
-    <row r="16" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+    <row r="16" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
         <v>1187</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>992</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>89</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>90</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>91</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>92</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>93</v>
       </c>
-      <c r="Z16" s="6" t="s">
+      <c r="AA16" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="AJ16" t="s">
+      <c r="AK16" t="s">
         <v>826</v>
       </c>
-      <c r="AP16" t="s">
+      <c r="AQ16" t="s">
         <v>867</v>
       </c>
-      <c r="BH16" t="s">
+      <c r="BI16" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="17" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+    <row r="17" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
         <v>1188</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>993</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>95</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>96</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>97</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>98</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>99</v>
       </c>
-      <c r="Z17" s="6" t="s">
+      <c r="AA17" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="AJ17" t="s">
+      <c r="AK17" t="s">
         <v>827</v>
       </c>
-      <c r="AP17" t="s">
+      <c r="AQ17" t="s">
         <v>868</v>
       </c>
-      <c r="BH17" t="s">
+      <c r="BI17" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="18" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+    <row r="18" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
         <v>1189</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>994</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>101</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>102</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>103</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>104</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>105</v>
       </c>
-      <c r="Z18" s="6" t="s">
+      <c r="AA18" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="AJ18" t="s">
+      <c r="AK18" t="s">
         <v>828</v>
       </c>
-      <c r="AP18" t="s">
+      <c r="AQ18" t="s">
         <v>869</v>
       </c>
-      <c r="BH18" t="s">
+      <c r="BI18" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="19" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+    <row r="19" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
         <v>1190</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>995</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>107</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>108</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>109</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>110</v>
       </c>
-      <c r="Z19" s="6" t="s">
+      <c r="AA19" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="AJ19" t="s">
+      <c r="AK19" t="s">
         <v>829</v>
       </c>
-      <c r="AP19" t="s">
+      <c r="AQ19" t="s">
         <v>870</v>
       </c>
-      <c r="BH19" t="s">
+      <c r="BI19" t="s">
         <v>1268</v>
       </c>
     </row>
-    <row r="20" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+    <row r="20" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
         <v>1191</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>996</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>112</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>113</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>114</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>115</v>
       </c>
-      <c r="Z20" s="6" t="s">
+      <c r="AA20" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="AJ20" t="s">
+      <c r="AK20" t="s">
         <v>830</v>
       </c>
-      <c r="AP20" t="s">
+      <c r="AQ20" t="s">
         <v>871</v>
       </c>
-      <c r="BH20" t="s">
+      <c r="BI20" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="21" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+    <row r="21" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
         <v>1192</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>997</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>117</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>118</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>119</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>120</v>
       </c>
-      <c r="Z21" s="6" t="s">
+      <c r="AA21" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="AJ21" t="s">
+      <c r="AK21" t="s">
         <v>831</v>
       </c>
-      <c r="AP21" t="s">
+      <c r="AQ21" t="s">
         <v>872</v>
       </c>
-      <c r="BH21" t="s">
+      <c r="BI21" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="22" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+    <row r="22" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
         <v>1193</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>998</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>122</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>123</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>124</v>
       </c>
-      <c r="Z22" s="6" t="s">
+      <c r="AA22" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="AJ22" t="s">
+      <c r="AK22" t="s">
         <v>832</v>
       </c>
-      <c r="AP22" t="s">
+      <c r="AQ22" t="s">
         <v>873</v>
       </c>
-      <c r="BH22" t="s">
+      <c r="BI22" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="23" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+    <row r="23" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
         <v>1194</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>999</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>126</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>127</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>128</v>
       </c>
-      <c r="Z23" s="6" t="s">
+      <c r="AA23" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="AJ23" t="s">
+      <c r="AK23" t="s">
         <v>833</v>
       </c>
-      <c r="AP23" t="s">
+      <c r="AQ23" t="s">
         <v>874</v>
       </c>
-      <c r="BH23" t="s">
+      <c r="BI23" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="24" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
+    <row r="24" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
         <v>1195</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>1000</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>130</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>131</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>132</v>
       </c>
-      <c r="Z24" s="6" t="s">
+      <c r="AA24" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="AJ24" t="s">
+      <c r="AK24" t="s">
         <v>834</v>
       </c>
-      <c r="AP24" t="s">
+      <c r="AQ24" t="s">
         <v>875</v>
       </c>
-      <c r="BH24" t="s">
+      <c r="BI24" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="25" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
+    <row r="25" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
         <v>1196</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>1001</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>134</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>135</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>136</v>
       </c>
-      <c r="Z25" s="6" t="s">
+      <c r="AA25" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="AJ25" t="s">
+      <c r="AK25" t="s">
         <v>835</v>
       </c>
-      <c r="AP25" t="s">
+      <c r="AQ25" t="s">
         <v>876</v>
       </c>
-      <c r="BH25" t="s">
+      <c r="BI25" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="26" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+    <row r="26" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
         <v>1197</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>1002</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>138</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>139</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>140</v>
       </c>
-      <c r="Z26" s="6" t="s">
+      <c r="AA26" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="AJ26" t="s">
+      <c r="AK26" t="s">
         <v>836</v>
       </c>
-      <c r="AP26" t="s">
+      <c r="AQ26" t="s">
         <v>877</v>
       </c>
-      <c r="BH26" t="s">
+      <c r="BI26" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="27" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
+    <row r="27" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
         <v>1198</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>1003</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>142</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>143</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>144</v>
       </c>
-      <c r="Z27" s="6" t="s">
+      <c r="AA27" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="AJ27" t="s">
+      <c r="AK27" t="s">
         <v>837</v>
       </c>
-      <c r="AP27" t="s">
+      <c r="AQ27" t="s">
         <v>878</v>
       </c>
-      <c r="BH27" t="s">
+      <c r="BI27" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="28" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+    <row r="28" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
         <v>1199</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>1004</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>146</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>147</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>148</v>
       </c>
-      <c r="Z28" s="6" t="s">
+      <c r="AA28" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AJ28" t="s">
+      <c r="AK28" t="s">
         <v>838</v>
       </c>
-      <c r="AP28" t="s">
+      <c r="AQ28" t="s">
         <v>879</v>
       </c>
-      <c r="BH28" t="s">
+      <c r="BI28" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="29" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
+    <row r="29" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
         <v>1200</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>1005</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>150</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>151</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>152</v>
       </c>
-      <c r="Z29" s="6" t="s">
+      <c r="AA29" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="AJ29" t="s">
+      <c r="AK29" t="s">
         <v>839</v>
       </c>
-      <c r="AP29" t="s">
+      <c r="AQ29" t="s">
         <v>880</v>
       </c>
-      <c r="BH29" t="s">
+      <c r="BI29" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="30" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
+    <row r="30" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
         <v>1201</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>1006</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>154</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>155</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>156</v>
       </c>
-      <c r="Z30" s="6" t="s">
+      <c r="AA30" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="AJ30" t="s">
+      <c r="AK30" t="s">
         <v>840</v>
       </c>
-      <c r="AP30" t="s">
+      <c r="AQ30" t="s">
         <v>881</v>
       </c>
-      <c r="BH30" t="s">
+      <c r="BI30" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="31" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
+    <row r="31" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
         <v>1202</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>1007</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>158</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>159</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>160</v>
       </c>
-      <c r="Z31" s="6" t="s">
+      <c r="AA31" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="AJ31" t="s">
+      <c r="AK31" t="s">
         <v>841</v>
       </c>
-      <c r="AP31" t="s">
+      <c r="AQ31" t="s">
         <v>882</v>
       </c>
-      <c r="BH31" t="s">
+      <c r="BI31" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row r="32" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
+    <row r="32" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
         <v>1203</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>1008</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>162</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>163</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>164</v>
       </c>
-      <c r="Z32" s="6" t="s">
+      <c r="AA32" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="AJ32" t="s">
+      <c r="AK32" t="s">
         <v>842</v>
       </c>
-      <c r="AP32" t="s">
+      <c r="AQ32" t="s">
         <v>883</v>
       </c>
-      <c r="BH32" t="s">
+      <c r="BI32" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="33" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
+    <row r="33" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
         <v>1204</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>1009</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>166</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>167</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" t="s">
         <v>168</v>
       </c>
-      <c r="Z33" s="6" t="s">
+      <c r="AA33" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="AJ33" t="s">
+      <c r="AK33" t="s">
         <v>843</v>
       </c>
-      <c r="AP33" t="s">
+      <c r="AQ33" t="s">
         <v>884</v>
       </c>
-      <c r="BH33" t="s">
+      <c r="BI33" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="34" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
+    <row r="34" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
         <v>1205</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>1010</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>170</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>171</v>
       </c>
-      <c r="R34" t="s">
+      <c r="S34" t="s">
         <v>172</v>
       </c>
-      <c r="Z34" s="6" t="s">
+      <c r="AA34" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="AJ34" t="s">
+      <c r="AK34" t="s">
         <v>844</v>
       </c>
-      <c r="AP34" t="s">
+      <c r="AQ34" t="s">
         <v>885</v>
       </c>
-      <c r="BH34" t="s">
+      <c r="BI34" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="35" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
+    <row r="35" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
         <v>1206</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>1011</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>174</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>175</v>
       </c>
-      <c r="R35" t="s">
+      <c r="S35" t="s">
         <v>176</v>
       </c>
-      <c r="Z35" s="6" t="s">
+      <c r="AA35" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="AP35" t="s">
+      <c r="AQ35" t="s">
         <v>886</v>
       </c>
-      <c r="BH35" t="s">
+      <c r="BI35" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="36" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
+    <row r="36" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
         <v>1207</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>1012</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>178</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>179</v>
       </c>
-      <c r="R36" t="s">
+      <c r="S36" t="s">
         <v>180</v>
       </c>
-      <c r="Z36" s="6" t="s">
+      <c r="AA36" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="AP36" t="s">
+      <c r="AQ36" t="s">
         <v>887</v>
       </c>
-      <c r="BH36" t="s">
+      <c r="BI36" t="s">
         <v>1285</v>
       </c>
     </row>
-    <row r="37" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
+    <row r="37" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
         <v>1208</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>1013</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>182</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>183</v>
       </c>
-      <c r="R37" t="s">
+      <c r="S37" t="s">
         <v>184</v>
       </c>
-      <c r="Z37" s="6" t="s">
+      <c r="AA37" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="AP37" t="s">
+      <c r="AQ37" t="s">
         <v>888</v>
       </c>
-      <c r="BH37" t="s">
+      <c r="BI37" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="38" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
+    <row r="38" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
         <v>1209</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>1014</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>186</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>187</v>
       </c>
-      <c r="R38" t="s">
+      <c r="S38" t="s">
         <v>188</v>
       </c>
-      <c r="Z38" s="6" t="s">
+      <c r="AA38" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="AP38" t="s">
+      <c r="AQ38" t="s">
         <v>889</v>
       </c>
-      <c r="BH38" t="s">
+      <c r="BI38" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="39" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
+    <row r="39" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
         <v>1210</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>1015</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>190</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>191</v>
       </c>
-      <c r="R39" t="s">
+      <c r="S39" t="s">
         <v>192</v>
       </c>
-      <c r="Z39" s="6" t="s">
+      <c r="AA39" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="AP39" t="s">
+      <c r="AQ39" t="s">
         <v>890</v>
       </c>
-      <c r="BH39" t="s">
+      <c r="BI39" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row r="40" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
+    <row r="40" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
         <v>1211</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>1016</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>194</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>195</v>
       </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
         <v>196</v>
       </c>
-      <c r="Z40" s="6" t="s">
+      <c r="AA40" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="AP40" t="s">
+      <c r="AQ40" t="s">
         <v>891</v>
       </c>
-      <c r="BH40" t="s">
+      <c r="BI40" t="s">
         <v>1289</v>
       </c>
     </row>
-    <row r="41" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
+    <row r="41" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
         <v>1212</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>1017</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>198</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>199</v>
       </c>
-      <c r="R41" t="s">
+      <c r="S41" t="s">
         <v>200</v>
       </c>
-      <c r="Z41" s="6" t="s">
+      <c r="AA41" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="AP41" t="s">
+      <c r="AQ41" t="s">
         <v>892</v>
       </c>
-      <c r="BH41" t="s">
+      <c r="BI41" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="42" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
+    <row r="42" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
         <v>1213</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>1018</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>202</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>203</v>
       </c>
-      <c r="R42" t="s">
+      <c r="S42" t="s">
         <v>204</v>
       </c>
-      <c r="Z42" s="6" t="s">
+      <c r="AA42" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="AP42" t="s">
+      <c r="AQ42" t="s">
         <v>893</v>
       </c>
-      <c r="BH42" t="s">
+      <c r="BI42" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="43" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
+    <row r="43" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
         <v>1214</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>1019</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>206</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>207</v>
       </c>
-      <c r="R43" t="s">
+      <c r="S43" t="s">
         <v>208</v>
       </c>
-      <c r="Z43" s="6" t="s">
+      <c r="AA43" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="BH43" t="s">
+      <c r="BI43" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="44" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
+    <row r="44" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
         <v>1215</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>1020</v>
       </c>
-      <c r="M44" t="s">
+      <c r="N44" t="s">
         <v>210</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" t="s">
         <v>211</v>
       </c>
-      <c r="R44" t="s">
+      <c r="S44" t="s">
         <v>212</v>
       </c>
-      <c r="Z44" s="6" t="s">
+      <c r="AA44" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="BH44" t="s">
+      <c r="BI44" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="45" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
+    <row r="45" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
         <v>1216</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>1021</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>214</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>215</v>
       </c>
-      <c r="R45" t="s">
+      <c r="S45" t="s">
         <v>216</v>
       </c>
-      <c r="Z45" s="6" t="s">
+      <c r="AA45" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="BH45" t="s">
+      <c r="BI45" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="46" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
+    <row r="46" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
         <v>1217</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>1022</v>
       </c>
-      <c r="M46" t="s">
+      <c r="N46" t="s">
         <v>218</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>219</v>
       </c>
-      <c r="R46" t="s">
+      <c r="S46" t="s">
         <v>220</v>
       </c>
-      <c r="Z46" s="6" t="s">
+      <c r="AA46" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="BH46" t="s">
+      <c r="BI46" t="s">
         <v>1295</v>
       </c>
     </row>
-    <row r="47" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
+    <row r="47" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
         <v>1218</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>1023</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>222</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
         <v>223</v>
       </c>
-      <c r="R47" t="s">
+      <c r="S47" t="s">
         <v>224</v>
       </c>
-      <c r="Z47" s="6" t="s">
+      <c r="AA47" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="BH47" t="s">
+      <c r="BI47" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="48" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
+    <row r="48" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
         <v>1219</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>1024</v>
       </c>
-      <c r="M48" t="s">
+      <c r="N48" t="s">
         <v>226</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
         <v>227</v>
       </c>
-      <c r="R48" t="s">
+      <c r="S48" t="s">
         <v>228</v>
       </c>
-      <c r="Z48" s="6" t="s">
+      <c r="AA48" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="BH48" t="s">
+      <c r="BI48" t="s">
         <v>1297</v>
       </c>
     </row>
-    <row r="49" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
+    <row r="49" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
         <v>1220</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>1025</v>
       </c>
-      <c r="M49" t="s">
+      <c r="N49" t="s">
         <v>230</v>
       </c>
-      <c r="O49" t="s">
+      <c r="P49" t="s">
         <v>231</v>
       </c>
-      <c r="R49" t="s">
+      <c r="S49" t="s">
         <v>232</v>
       </c>
-      <c r="Z49" s="6" t="s">
+      <c r="AA49" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="BH49" t="s">
+      <c r="BI49" t="s">
         <v>1298</v>
       </c>
     </row>
-    <row r="50" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
+    <row r="50" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
         <v>1221</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>1026</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
         <v>234</v>
       </c>
-      <c r="O50" t="s">
+      <c r="P50" t="s">
         <v>235</v>
       </c>
-      <c r="R50" t="s">
+      <c r="S50" t="s">
         <v>236</v>
       </c>
-      <c r="Z50" s="6" t="s">
+      <c r="AA50" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="BH50" t="s">
+      <c r="BI50" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="51" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
+    <row r="51" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
         <v>1222</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>1027</v>
       </c>
-      <c r="M51" t="s">
+      <c r="N51" t="s">
         <v>238</v>
       </c>
-      <c r="O51" t="s">
+      <c r="P51" t="s">
         <v>239</v>
       </c>
-      <c r="R51" t="s">
+      <c r="S51" t="s">
         <v>240</v>
       </c>
-      <c r="Z51" s="6" t="s">
+      <c r="AA51" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="BH51" t="s">
+      <c r="BI51" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="52" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
+    <row r="52" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
         <v>1223</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>1028</v>
       </c>
-      <c r="M52" t="s">
+      <c r="N52" t="s">
         <v>242</v>
       </c>
-      <c r="O52" t="s">
+      <c r="P52" t="s">
         <v>243</v>
       </c>
-      <c r="R52" t="s">
+      <c r="S52" t="s">
         <v>244</v>
       </c>
-      <c r="Z52" s="6" t="s">
+      <c r="AA52" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="BH52" t="s">
+      <c r="BI52" t="s">
         <v>1301</v>
       </c>
     </row>
-    <row r="53" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
+    <row r="53" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
         <v>1224</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>1029</v>
       </c>
-      <c r="M53" t="s">
+      <c r="N53" t="s">
         <v>246</v>
       </c>
-      <c r="O53" t="s">
+      <c r="P53" t="s">
         <v>247</v>
       </c>
-      <c r="R53" t="s">
+      <c r="S53" t="s">
         <v>248</v>
       </c>
-      <c r="Z53" s="6" t="s">
+      <c r="AA53" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="BH53" t="s">
+      <c r="BI53" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="54" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G54" t="s">
+    <row r="54" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
         <v>1030</v>
       </c>
-      <c r="M54" t="s">
+      <c r="N54" t="s">
         <v>250</v>
       </c>
-      <c r="O54" t="s">
+      <c r="P54" t="s">
         <v>251</v>
       </c>
-      <c r="R54" t="s">
+      <c r="S54" t="s">
         <v>252</v>
       </c>
-      <c r="Z54" s="6" t="s">
+      <c r="AA54" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="BH54" t="s">
+      <c r="BI54" t="s">
         <v>1303</v>
       </c>
     </row>
-    <row r="55" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G55" t="s">
+    <row r="55" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H55" t="s">
         <v>1031</v>
       </c>
-      <c r="M55" t="s">
+      <c r="N55" t="s">
         <v>254</v>
       </c>
-      <c r="O55" t="s">
+      <c r="P55" t="s">
         <v>255</v>
       </c>
-      <c r="R55" t="s">
+      <c r="S55" t="s">
         <v>256</v>
       </c>
-      <c r="Z55" s="6" t="s">
+      <c r="AA55" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="BH55" t="s">
+      <c r="BI55" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="56" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G56" t="s">
+    <row r="56" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H56" t="s">
         <v>1032</v>
       </c>
-      <c r="M56" t="s">
+      <c r="N56" t="s">
         <v>258</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>259</v>
       </c>
-      <c r="R56" t="s">
+      <c r="S56" t="s">
         <v>260</v>
       </c>
-      <c r="Z56" s="6" t="s">
+      <c r="AA56" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="BH56" t="s">
+      <c r="BI56" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="57" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G57" t="s">
+    <row r="57" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H57" t="s">
         <v>1033</v>
       </c>
-      <c r="M57" t="s">
+      <c r="N57" t="s">
         <v>262</v>
       </c>
-      <c r="O57" t="s">
+      <c r="P57" t="s">
         <v>263</v>
       </c>
-      <c r="R57" t="s">
+      <c r="S57" t="s">
         <v>264</v>
       </c>
-      <c r="Z57" s="6" t="s">
+      <c r="AA57" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="BH57" t="s">
+      <c r="BI57" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="58" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G58" t="s">
+    <row r="58" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H58" t="s">
         <v>1034</v>
       </c>
-      <c r="M58" t="s">
+      <c r="N58" t="s">
         <v>266</v>
       </c>
-      <c r="O58" t="s">
+      <c r="P58" t="s">
         <v>267</v>
       </c>
-      <c r="R58" t="s">
+      <c r="S58" t="s">
         <v>268</v>
       </c>
-      <c r="Z58" s="6" t="s">
+      <c r="AA58" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="BH58" t="s">
+      <c r="BI58" t="s">
         <v>1307</v>
       </c>
     </row>
-    <row r="59" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G59" t="s">
+    <row r="59" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H59" t="s">
         <v>1035</v>
       </c>
-      <c r="M59" t="s">
+      <c r="N59" t="s">
         <v>270</v>
       </c>
-      <c r="O59" t="s">
+      <c r="P59" t="s">
         <v>271</v>
       </c>
-      <c r="R59" t="s">
+      <c r="S59" t="s">
         <v>272</v>
       </c>
-      <c r="Z59" s="6" t="s">
+      <c r="AA59" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="BH59" t="s">
+      <c r="BI59" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row r="60" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G60" t="s">
+    <row r="60" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H60" t="s">
         <v>1036</v>
       </c>
-      <c r="M60" t="s">
+      <c r="N60" t="s">
         <v>274</v>
       </c>
-      <c r="O60" t="s">
+      <c r="P60" t="s">
         <v>275</v>
       </c>
-      <c r="R60" t="s">
+      <c r="S60" t="s">
         <v>276</v>
       </c>
-      <c r="Z60" s="6" t="s">
+      <c r="AA60" s="6" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="61" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G61" t="s">
+    <row r="61" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H61" t="s">
         <v>1037</v>
       </c>
-      <c r="M61" t="s">
+      <c r="N61" t="s">
         <v>278</v>
       </c>
-      <c r="O61" t="s">
+      <c r="P61" t="s">
         <v>279</v>
       </c>
-      <c r="R61" t="s">
+      <c r="S61" t="s">
         <v>280</v>
       </c>
-      <c r="Z61" s="6" t="s">
+      <c r="AA61" s="6" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="62" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G62" t="s">
+    <row r="62" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H62" t="s">
         <v>1038</v>
       </c>
-      <c r="M62" t="s">
+      <c r="N62" t="s">
         <v>282</v>
       </c>
-      <c r="O62" t="s">
+      <c r="P62" t="s">
         <v>283</v>
       </c>
-      <c r="R62" t="s">
+      <c r="S62" t="s">
         <v>284</v>
       </c>
-      <c r="Z62" s="6" t="s">
+      <c r="AA62" s="6" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="63" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G63" t="s">
+    <row r="63" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H63" t="s">
         <v>1039</v>
       </c>
-      <c r="M63" t="s">
+      <c r="N63" t="s">
         <v>286</v>
       </c>
-      <c r="O63" t="s">
+      <c r="P63" t="s">
         <v>287</v>
       </c>
-      <c r="R63" t="s">
+      <c r="S63" t="s">
         <v>288</v>
       </c>
-      <c r="Z63" s="6" t="s">
+      <c r="AA63" s="6" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="64" spans="3:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G64" t="s">
+    <row r="64" spans="4:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H64" t="s">
         <v>1040</v>
       </c>
-      <c r="M64" t="s">
+      <c r="N64" t="s">
         <v>290</v>
       </c>
-      <c r="O64" t="s">
+      <c r="P64" t="s">
         <v>291</v>
       </c>
-      <c r="R64" t="s">
+      <c r="S64" t="s">
         <v>292</v>
       </c>
-      <c r="Z64" s="6" t="s">
+      <c r="AA64" s="6" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="65" spans="7:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G65" t="s">
+    <row r="65" spans="8:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H65" t="s">
         <v>1041</v>
       </c>
-      <c r="M65" t="s">
+      <c r="N65" t="s">
         <v>294</v>
       </c>
-      <c r="O65" t="s">
+      <c r="P65" t="s">
         <v>295</v>
       </c>
-      <c r="R65" t="s">
+      <c r="S65" t="s">
         <v>296</v>
       </c>
-      <c r="Z65" s="6" t="s">
+      <c r="AA65" s="6" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="66" spans="7:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G66" t="s">
+    <row r="66" spans="8:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H66" t="s">
         <v>1042</v>
       </c>
-      <c r="M66" t="s">
+      <c r="N66" t="s">
         <v>298</v>
       </c>
-      <c r="O66" t="s">
+      <c r="P66" t="s">
         <v>299</v>
       </c>
-      <c r="R66" t="s">
+      <c r="S66" t="s">
         <v>300</v>
       </c>
-      <c r="Z66" s="6" t="s">
+      <c r="AA66" s="6" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="67" spans="7:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G67" t="s">
+    <row r="67" spans="8:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H67" t="s">
         <v>1043</v>
       </c>
-      <c r="M67" t="s">
+      <c r="N67" t="s">
         <v>302</v>
       </c>
-      <c r="O67" t="s">
+      <c r="P67" t="s">
         <v>303</v>
       </c>
-      <c r="R67" t="s">
+      <c r="S67" t="s">
         <v>304</v>
       </c>
-      <c r="Z67" s="6" t="s">
+      <c r="AA67" s="6" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="68" spans="7:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G68" t="s">
+    <row r="68" spans="8:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H68" t="s">
         <v>1044</v>
       </c>
-      <c r="M68" t="s">
+      <c r="N68" t="s">
         <v>306</v>
       </c>
-      <c r="O68" t="s">
+      <c r="P68" t="s">
         <v>307</v>
       </c>
-      <c r="R68" t="s">
+      <c r="S68" t="s">
         <v>308</v>
       </c>
-      <c r="Z68" s="6" t="s">
+      <c r="AA68" s="6" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="69" spans="7:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G69" t="s">
+    <row r="69" spans="8:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H69" t="s">
         <v>1045</v>
       </c>
-      <c r="M69" t="s">
+      <c r="N69" t="s">
         <v>310</v>
       </c>
-      <c r="O69" t="s">
+      <c r="P69" t="s">
         <v>311</v>
       </c>
-      <c r="R69" t="s">
+      <c r="S69" t="s">
         <v>312</v>
       </c>
-      <c r="Z69" s="6" t="s">
+      <c r="AA69" s="6" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="70" spans="7:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G70" t="s">
+    <row r="70" spans="8:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H70" t="s">
         <v>1046</v>
       </c>
-      <c r="M70" t="s">
+      <c r="N70" t="s">
         <v>314</v>
       </c>
-      <c r="O70" t="s">
+      <c r="P70" t="s">
         <v>315</v>
       </c>
-      <c r="R70" t="s">
+      <c r="S70" t="s">
         <v>316</v>
       </c>
-      <c r="Z70" s="6" t="s">
+      <c r="AA70" s="6" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="71" spans="7:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G71" t="s">
+    <row r="71" spans="8:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H71" t="s">
         <v>1047</v>
       </c>
-      <c r="M71" t="s">
+      <c r="N71" t="s">
         <v>318</v>
       </c>
-      <c r="O71" t="s">
+      <c r="P71" t="s">
         <v>319</v>
       </c>
-      <c r="R71" t="s">
+      <c r="S71" t="s">
         <v>320</v>
       </c>
-      <c r="Z71" s="6" t="s">
+      <c r="AA71" s="6" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="72" spans="7:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G72" t="s">
+    <row r="72" spans="8:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H72" t="s">
         <v>1048</v>
       </c>
-      <c r="M72" t="s">
+      <c r="N72" t="s">
         <v>322</v>
       </c>
-      <c r="O72" t="s">
+      <c r="P72" t="s">
         <v>323</v>
       </c>
-      <c r="R72" t="s">
+      <c r="S72" t="s">
         <v>324</v>
       </c>
-      <c r="Z72" s="6" t="s">
+      <c r="AA72" s="6" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="73" spans="7:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G73" t="s">
+    <row r="73" spans="8:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H73" t="s">
         <v>1049</v>
       </c>
-      <c r="M73" t="s">
+      <c r="N73" t="s">
         <v>326</v>
       </c>
-      <c r="O73" t="s">
+      <c r="P73" t="s">
         <v>327</v>
       </c>
-      <c r="R73" t="s">
+      <c r="S73" t="s">
         <v>328</v>
       </c>
-      <c r="Z73" s="6" t="s">
+      <c r="AA73" s="6" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="74" spans="7:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G74" t="s">
+    <row r="74" spans="8:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H74" t="s">
         <v>1050</v>
       </c>
-      <c r="M74" t="s">
+      <c r="N74" t="s">
         <v>330</v>
       </c>
-      <c r="O74" t="s">
+      <c r="P74" t="s">
         <v>331</v>
       </c>
-      <c r="R74" t="s">
+      <c r="S74" t="s">
         <v>332</v>
       </c>
-      <c r="Z74" s="6" t="s">
+      <c r="AA74" s="6" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="75" spans="7:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G75" t="s">
+    <row r="75" spans="8:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H75" t="s">
         <v>1051</v>
       </c>
-      <c r="M75" t="s">
+      <c r="N75" t="s">
         <v>334</v>
       </c>
-      <c r="O75" t="s">
+      <c r="P75" t="s">
         <v>335</v>
       </c>
-      <c r="R75" t="s">
+      <c r="S75" t="s">
         <v>336</v>
       </c>
-      <c r="Z75" s="6" t="s">
+      <c r="AA75" s="6" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="76" spans="7:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G76" t="s">
+    <row r="76" spans="8:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H76" t="s">
         <v>1052</v>
       </c>
-      <c r="M76" t="s">
+      <c r="N76" t="s">
         <v>338</v>
       </c>
-      <c r="O76" t="s">
+      <c r="P76" t="s">
         <v>339</v>
       </c>
-      <c r="R76" t="s">
+      <c r="S76" t="s">
         <v>340</v>
       </c>
-      <c r="Z76" s="6" t="s">
+      <c r="AA76" s="6" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="77" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G77" t="s">
+    <row r="77" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H77" t="s">
         <v>1053</v>
       </c>
-      <c r="M77" t="s">
+      <c r="N77" t="s">
         <v>342</v>
       </c>
-      <c r="O77" t="s">
+      <c r="P77" t="s">
         <v>343</v>
       </c>
-      <c r="R77" t="s">
+      <c r="S77" t="s">
         <v>344</v>
       </c>
-      <c r="Z77" s="6" t="s">
+      <c r="AA77" s="6" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="78" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G78" t="s">
+    <row r="78" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H78" t="s">
         <v>1054</v>
       </c>
-      <c r="M78" t="s">
+      <c r="N78" t="s">
         <v>346</v>
       </c>
-      <c r="O78" t="s">
+      <c r="P78" t="s">
         <v>347</v>
       </c>
-      <c r="R78" t="s">
+      <c r="S78" t="s">
         <v>348</v>
       </c>
-      <c r="Z78" s="6" t="s">
+      <c r="AA78" s="6" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="79" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G79" t="s">
+    <row r="79" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H79" t="s">
         <v>1055</v>
       </c>
-      <c r="M79" t="s">
+      <c r="N79" t="s">
         <v>350</v>
       </c>
-      <c r="O79" t="s">
+      <c r="P79" t="s">
         <v>351</v>
       </c>
-      <c r="R79" t="s">
+      <c r="S79" t="s">
         <v>352</v>
       </c>
-      <c r="Z79" s="6" t="s">
+      <c r="AA79" s="6" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="80" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G80" t="s">
+    <row r="80" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H80" t="s">
         <v>1056</v>
       </c>
-      <c r="M80" t="s">
+      <c r="N80" t="s">
         <v>354</v>
       </c>
-      <c r="O80" t="s">
+      <c r="P80" t="s">
         <v>355</v>
       </c>
-      <c r="R80" t="s">
+      <c r="S80" t="s">
         <v>356</v>
       </c>
-      <c r="Z80" s="6" t="s">
+      <c r="AA80" s="6" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="81" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G81" t="s">
+    <row r="81" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H81" t="s">
         <v>1057</v>
       </c>
-      <c r="M81" t="s">
+      <c r="N81" t="s">
         <v>358</v>
       </c>
-      <c r="O81" t="s">
+      <c r="P81" t="s">
         <v>359</v>
       </c>
-      <c r="R81" t="s">
+      <c r="S81" t="s">
         <v>360</v>
       </c>
-      <c r="Z81" s="6" t="s">
+      <c r="AA81" s="6" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="82" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G82" t="s">
+    <row r="82" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H82" t="s">
         <v>1058</v>
       </c>
-      <c r="M82" t="s">
+      <c r="N82" t="s">
         <v>362</v>
       </c>
-      <c r="O82" t="s">
+      <c r="P82" t="s">
         <v>363</v>
       </c>
-      <c r="R82" t="s">
+      <c r="S82" t="s">
         <v>364</v>
       </c>
-      <c r="Z82" s="6" t="s">
+      <c r="AA82" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="83" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G83" t="s">
+    <row r="83" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H83" t="s">
         <v>1059</v>
       </c>
-      <c r="M83" t="s">
+      <c r="N83" t="s">
         <v>366</v>
       </c>
-      <c r="O83" t="s">
+      <c r="P83" t="s">
         <v>367</v>
       </c>
-      <c r="R83" t="s">
+      <c r="S83" t="s">
         <v>368</v>
       </c>
-      <c r="Z83" s="6" t="s">
+      <c r="AA83" s="6" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="84" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G84" t="s">
+    <row r="84" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H84" t="s">
         <v>1060</v>
       </c>
-      <c r="M84" t="s">
+      <c r="N84" t="s">
         <v>370</v>
       </c>
-      <c r="O84" t="s">
+      <c r="P84" t="s">
         <v>371</v>
       </c>
-      <c r="R84" t="s">
+      <c r="S84" t="s">
         <v>372</v>
       </c>
-      <c r="Z84" s="6" t="s">
+      <c r="AA84" s="6" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="85" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G85" t="s">
+    <row r="85" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H85" t="s">
         <v>1061</v>
       </c>
-      <c r="M85" t="s">
+      <c r="N85" t="s">
         <v>374</v>
       </c>
-      <c r="O85" t="s">
+      <c r="P85" t="s">
         <v>375</v>
       </c>
-      <c r="R85" t="s">
+      <c r="S85" t="s">
         <v>376</v>
       </c>
-      <c r="Z85" s="6" t="s">
+      <c r="AA85" s="6" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="86" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G86" t="s">
+    <row r="86" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H86" t="s">
         <v>1062</v>
       </c>
-      <c r="M86" t="s">
+      <c r="N86" t="s">
         <v>378</v>
       </c>
-      <c r="O86" t="s">
+      <c r="P86" t="s">
         <v>379</v>
       </c>
-      <c r="R86" t="s">
+      <c r="S86" t="s">
         <v>380</v>
       </c>
-      <c r="Z86" s="6" t="s">
+      <c r="AA86" s="6" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="87" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G87" t="s">
+    <row r="87" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H87" t="s">
         <v>1063</v>
       </c>
-      <c r="M87" t="s">
+      <c r="N87" t="s">
         <v>382</v>
       </c>
-      <c r="O87" t="s">
+      <c r="P87" t="s">
         <v>383</v>
       </c>
-      <c r="R87" t="s">
+      <c r="S87" t="s">
         <v>384</v>
       </c>
-      <c r="Z87" s="6" t="s">
+      <c r="AA87" s="6" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="88" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G88" t="s">
+    <row r="88" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H88" t="s">
         <v>1064</v>
       </c>
-      <c r="M88" t="s">
+      <c r="N88" t="s">
         <v>386</v>
       </c>
-      <c r="O88" t="s">
+      <c r="P88" t="s">
         <v>387</v>
       </c>
-      <c r="R88" t="s">
+      <c r="S88" t="s">
         <v>388</v>
       </c>
-      <c r="Z88" s="6" t="s">
+      <c r="AA88" s="6" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="89" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G89" t="s">
+    <row r="89" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H89" t="s">
         <v>1065</v>
       </c>
-      <c r="M89" t="s">
+      <c r="N89" t="s">
         <v>390</v>
       </c>
-      <c r="O89" t="s">
+      <c r="P89" t="s">
         <v>391</v>
       </c>
-      <c r="R89" t="s">
+      <c r="S89" t="s">
         <v>392</v>
       </c>
-      <c r="Z89" s="6" t="s">
+      <c r="AA89" s="6" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="90" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G90" t="s">
+    <row r="90" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H90" t="s">
         <v>1066</v>
       </c>
-      <c r="M90" t="s">
+      <c r="N90" t="s">
         <v>394</v>
       </c>
-      <c r="O90" t="s">
+      <c r="P90" t="s">
         <v>395</v>
       </c>
-      <c r="R90" t="s">
+      <c r="S90" t="s">
         <v>396</v>
       </c>
-      <c r="Z90" s="6" t="s">
+      <c r="AA90" s="6" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="91" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G91" t="s">
+    <row r="91" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H91" t="s">
         <v>1067</v>
       </c>
-      <c r="M91" t="s">
+      <c r="N91" t="s">
         <v>398</v>
       </c>
-      <c r="O91" t="s">
+      <c r="P91" t="s">
         <v>399</v>
       </c>
-      <c r="R91" t="s">
+      <c r="S91" t="s">
         <v>400</v>
       </c>
-      <c r="Z91" s="6" t="s">
+      <c r="AA91" s="6" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="92" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G92" t="s">
+    <row r="92" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H92" t="s">
         <v>1068</v>
       </c>
-      <c r="M92" t="s">
+      <c r="N92" t="s">
         <v>402</v>
       </c>
-      <c r="O92" t="s">
+      <c r="P92" t="s">
         <v>403</v>
       </c>
-      <c r="R92" t="s">
+      <c r="S92" t="s">
         <v>404</v>
       </c>
-      <c r="Z92" s="6" t="s">
+      <c r="AA92" s="6" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="93" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G93" t="s">
+    <row r="93" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H93" t="s">
         <v>1069</v>
       </c>
-      <c r="M93" t="s">
+      <c r="N93" t="s">
         <v>406</v>
       </c>
-      <c r="O93" t="s">
+      <c r="P93" t="s">
         <v>407</v>
       </c>
-      <c r="R93" t="s">
+      <c r="S93" t="s">
         <v>408</v>
       </c>
-      <c r="Z93" s="6" t="s">
+      <c r="AA93" s="6" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="94" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G94" t="s">
+    <row r="94" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H94" t="s">
         <v>1070</v>
       </c>
-      <c r="M94" t="s">
+      <c r="N94" t="s">
         <v>410</v>
       </c>
-      <c r="O94" t="s">
+      <c r="P94" t="s">
         <v>411</v>
       </c>
-      <c r="R94" t="s">
+      <c r="S94" t="s">
         <v>412</v>
       </c>
-      <c r="Z94" s="6" t="s">
+      <c r="AA94" s="6" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="95" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G95" t="s">
+    <row r="95" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H95" t="s">
         <v>1071</v>
       </c>
-      <c r="M95" t="s">
+      <c r="N95" t="s">
         <v>414</v>
       </c>
-      <c r="O95" t="s">
+      <c r="P95" t="s">
         <v>415</v>
       </c>
-      <c r="R95" t="s">
+      <c r="S95" t="s">
         <v>416</v>
       </c>
-      <c r="Z95" s="6" t="s">
+      <c r="AA95" s="6" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="96" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G96" t="s">
+    <row r="96" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H96" t="s">
         <v>1072</v>
       </c>
-      <c r="M96" t="s">
+      <c r="N96" t="s">
         <v>418</v>
       </c>
-      <c r="O96" t="s">
+      <c r="P96" t="s">
         <v>419</v>
       </c>
-      <c r="R96" t="s">
+      <c r="S96" t="s">
         <v>420</v>
       </c>
-      <c r="Z96" s="6" t="s">
+      <c r="AA96" s="6" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="97" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G97" t="s">
+    <row r="97" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H97" t="s">
         <v>1073</v>
       </c>
-      <c r="M97" t="s">
+      <c r="N97" t="s">
         <v>422</v>
       </c>
-      <c r="O97" t="s">
+      <c r="P97" t="s">
         <v>423</v>
       </c>
-      <c r="R97" t="s">
+      <c r="S97" t="s">
         <v>424</v>
       </c>
-      <c r="Z97" s="6" t="s">
+      <c r="AA97" s="6" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="98" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G98" t="s">
+    <row r="98" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H98" t="s">
         <v>1074</v>
       </c>
-      <c r="M98" t="s">
+      <c r="N98" t="s">
         <v>426</v>
       </c>
-      <c r="O98" t="s">
+      <c r="P98" t="s">
         <v>427</v>
       </c>
-      <c r="R98" t="s">
+      <c r="S98" t="s">
         <v>428</v>
       </c>
-      <c r="Z98" s="6" t="s">
+      <c r="AA98" s="6" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="99" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G99" t="s">
+    <row r="99" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H99" t="s">
         <v>1075</v>
       </c>
-      <c r="M99" t="s">
+      <c r="N99" t="s">
         <v>430</v>
       </c>
-      <c r="O99" t="s">
+      <c r="P99" t="s">
         <v>431</v>
       </c>
-      <c r="R99" t="s">
+      <c r="S99" t="s">
         <v>432</v>
       </c>
-      <c r="Z99" s="6" t="s">
+      <c r="AA99" s="6" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="100" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G100" t="s">
+    <row r="100" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H100" t="s">
         <v>1076</v>
       </c>
-      <c r="M100" t="s">
+      <c r="N100" t="s">
         <v>434</v>
       </c>
-      <c r="O100" t="s">
+      <c r="P100" t="s">
         <v>435</v>
       </c>
-      <c r="R100" t="s">
+      <c r="S100" t="s">
         <v>436</v>
       </c>
-      <c r="Z100" s="6" t="s">
+      <c r="AA100" s="6" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="101" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G101" t="s">
+    <row r="101" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H101" t="s">
         <v>1077</v>
       </c>
-      <c r="M101" t="s">
+      <c r="N101" t="s">
         <v>438</v>
       </c>
-      <c r="O101" t="s">
+      <c r="P101" t="s">
         <v>439</v>
       </c>
-      <c r="R101" t="s">
+      <c r="S101" t="s">
         <v>440</v>
       </c>
-      <c r="Z101" s="6" t="s">
+      <c r="AA101" s="6" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="102" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G102" t="s">
+    <row r="102" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H102" t="s">
         <v>1078</v>
       </c>
-      <c r="M102" t="s">
+      <c r="N102" t="s">
         <v>442</v>
       </c>
-      <c r="O102" t="s">
+      <c r="P102" t="s">
         <v>443</v>
       </c>
-      <c r="R102" t="s">
+      <c r="S102" t="s">
         <v>444</v>
       </c>
-      <c r="Z102" s="6" t="s">
+      <c r="AA102" s="6" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="103" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G103" t="s">
+    <row r="103" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H103" t="s">
         <v>1079</v>
       </c>
-      <c r="M103" t="s">
+      <c r="N103" t="s">
         <v>446</v>
       </c>
-      <c r="O103" t="s">
+      <c r="P103" t="s">
         <v>447</v>
       </c>
-      <c r="R103" t="s">
+      <c r="S103" t="s">
         <v>448</v>
       </c>
-      <c r="Z103" s="6" t="s">
+      <c r="AA103" s="6" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="104" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G104" t="s">
+    <row r="104" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H104" t="s">
         <v>1080</v>
       </c>
-      <c r="M104" t="s">
+      <c r="N104" t="s">
         <v>450</v>
       </c>
-      <c r="O104" t="s">
+      <c r="P104" t="s">
         <v>451</v>
       </c>
-      <c r="R104" t="s">
+      <c r="S104" t="s">
         <v>452</v>
       </c>
-      <c r="Z104" s="6" t="s">
+      <c r="AA104" s="6" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="105" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G105" t="s">
+    <row r="105" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H105" t="s">
         <v>1081</v>
       </c>
-      <c r="M105" t="s">
+      <c r="N105" t="s">
         <v>454</v>
       </c>
-      <c r="O105" t="s">
+      <c r="P105" t="s">
         <v>455</v>
       </c>
-      <c r="R105" t="s">
+      <c r="S105" t="s">
         <v>456</v>
       </c>
-      <c r="Z105" s="6" t="s">
+      <c r="AA105" s="6" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="106" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G106" t="s">
+    <row r="106" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H106" t="s">
         <v>1082</v>
       </c>
-      <c r="M106" t="s">
+      <c r="N106" t="s">
         <v>458</v>
       </c>
-      <c r="O106" t="s">
+      <c r="P106" t="s">
         <v>459</v>
       </c>
-      <c r="R106" t="s">
+      <c r="S106" t="s">
         <v>460</v>
       </c>
-      <c r="Z106" s="6" t="s">
+      <c r="AA106" s="6" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="107" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G107" t="s">
+    <row r="107" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H107" t="s">
         <v>1083</v>
       </c>
-      <c r="M107" t="s">
+      <c r="N107" t="s">
         <v>462</v>
       </c>
-      <c r="O107" t="s">
+      <c r="P107" t="s">
         <v>463</v>
       </c>
-      <c r="R107" t="s">
+      <c r="S107" t="s">
         <v>464</v>
       </c>
-      <c r="Z107" s="6" t="s">
+      <c r="AA107" s="6" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="108" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G108" t="s">
+    <row r="108" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H108" t="s">
         <v>1084</v>
       </c>
-      <c r="M108" t="s">
+      <c r="N108" t="s">
         <v>466</v>
       </c>
-      <c r="O108" t="s">
+      <c r="P108" t="s">
         <v>467</v>
       </c>
-      <c r="R108" t="s">
+      <c r="S108" t="s">
         <v>468</v>
       </c>
-      <c r="Z108" s="6" t="s">
+      <c r="AA108" s="6" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="109" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G109" t="s">
+    <row r="109" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H109" t="s">
         <v>1085</v>
       </c>
-      <c r="M109" t="s">
+      <c r="N109" t="s">
         <v>470</v>
       </c>
-      <c r="O109" t="s">
+      <c r="P109" t="s">
         <v>471</v>
       </c>
-      <c r="R109" t="s">
+      <c r="S109" t="s">
         <v>472</v>
       </c>
-      <c r="Z109" s="6" t="s">
+      <c r="AA109" s="6" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="110" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G110" t="s">
+    <row r="110" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H110" t="s">
         <v>1086</v>
       </c>
-      <c r="M110" t="s">
+      <c r="N110" t="s">
         <v>474</v>
       </c>
-      <c r="O110" t="s">
+      <c r="P110" t="s">
         <v>475</v>
       </c>
-      <c r="R110" t="s">
+      <c r="S110" t="s">
         <v>476</v>
       </c>
-      <c r="Z110" s="6" t="s">
+      <c r="AA110" s="6" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="111" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G111" t="s">
+    <row r="111" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H111" t="s">
         <v>1087</v>
       </c>
-      <c r="M111" t="s">
+      <c r="N111" t="s">
         <v>478</v>
       </c>
-      <c r="O111" t="s">
+      <c r="P111" t="s">
         <v>479</v>
       </c>
-      <c r="R111" t="s">
+      <c r="S111" t="s">
         <v>480</v>
       </c>
-      <c r="Z111" s="6" t="s">
+      <c r="AA111" s="6" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="112" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G112" t="s">
+    <row r="112" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H112" t="s">
         <v>1088</v>
       </c>
-      <c r="M112" t="s">
+      <c r="N112" t="s">
         <v>482</v>
       </c>
-      <c r="O112" t="s">
+      <c r="P112" t="s">
         <v>483</v>
       </c>
-      <c r="R112" t="s">
+      <c r="S112" t="s">
         <v>484</v>
       </c>
-      <c r="Z112" s="6" t="s">
+      <c r="AA112" s="6" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="113" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G113" t="s">
+    <row r="113" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H113" t="s">
         <v>1089</v>
       </c>
-      <c r="M113" t="s">
+      <c r="N113" t="s">
         <v>486</v>
       </c>
-      <c r="O113" t="s">
+      <c r="P113" t="s">
         <v>487</v>
       </c>
-      <c r="R113" t="s">
+      <c r="S113" t="s">
         <v>488</v>
       </c>
-      <c r="Z113" s="6" t="s">
+      <c r="AA113" s="6" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="114" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G114" t="s">
+    <row r="114" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H114" t="s">
         <v>1090</v>
       </c>
-      <c r="M114" t="s">
+      <c r="N114" t="s">
         <v>490</v>
       </c>
-      <c r="O114" t="s">
+      <c r="P114" t="s">
         <v>491</v>
       </c>
-      <c r="R114" t="s">
+      <c r="S114" t="s">
         <v>492</v>
       </c>
-      <c r="Z114" s="6" t="s">
+      <c r="AA114" s="6" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="115" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G115" t="s">
+    <row r="115" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H115" t="s">
         <v>1091</v>
       </c>
-      <c r="M115" t="s">
+      <c r="N115" t="s">
         <v>494</v>
       </c>
-      <c r="O115" t="s">
+      <c r="P115" t="s">
         <v>495</v>
       </c>
-      <c r="R115" t="s">
+      <c r="S115" t="s">
         <v>496</v>
       </c>
-      <c r="Z115" s="6" t="s">
+      <c r="AA115" s="6" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="116" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G116" t="s">
+    <row r="116" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H116" t="s">
         <v>1092</v>
       </c>
-      <c r="M116" t="s">
+      <c r="N116" t="s">
         <v>498</v>
       </c>
-      <c r="O116" t="s">
+      <c r="P116" t="s">
         <v>499</v>
       </c>
-      <c r="R116" t="s">
+      <c r="S116" t="s">
         <v>500</v>
       </c>
-      <c r="Z116" s="6" t="s">
+      <c r="AA116" s="6" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="117" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G117" t="s">
+    <row r="117" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H117" t="s">
         <v>1093</v>
       </c>
-      <c r="M117" t="s">
+      <c r="N117" t="s">
         <v>502</v>
       </c>
-      <c r="O117" t="s">
+      <c r="P117" t="s">
         <v>503</v>
       </c>
-      <c r="R117" t="s">
+      <c r="S117" t="s">
         <v>504</v>
       </c>
-      <c r="Z117" s="6" t="s">
+      <c r="AA117" s="6" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="118" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G118" t="s">
+    <row r="118" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H118" t="s">
         <v>1094</v>
       </c>
-      <c r="M118" t="s">
+      <c r="N118" t="s">
         <v>506</v>
       </c>
-      <c r="O118" t="s">
+      <c r="P118" t="s">
         <v>507</v>
       </c>
-      <c r="R118" t="s">
+      <c r="S118" t="s">
         <v>508</v>
       </c>
-      <c r="Z118" s="6" t="s">
+      <c r="AA118" s="6" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="119" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G119" t="s">
+    <row r="119" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H119" t="s">
         <v>1095</v>
       </c>
-      <c r="M119" t="s">
+      <c r="N119" t="s">
         <v>510</v>
       </c>
-      <c r="O119" t="s">
+      <c r="P119" t="s">
         <v>511</v>
       </c>
-      <c r="R119" t="s">
+      <c r="S119" t="s">
         <v>512</v>
       </c>
-      <c r="Z119" s="6" t="s">
+      <c r="AA119" s="6" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="120" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G120" t="s">
+    <row r="120" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H120" t="s">
         <v>1096</v>
       </c>
-      <c r="M120" t="s">
+      <c r="N120" t="s">
         <v>514</v>
       </c>
-      <c r="O120" t="s">
+      <c r="P120" t="s">
         <v>515</v>
       </c>
-      <c r="R120" t="s">
+      <c r="S120" t="s">
         <v>516</v>
       </c>
-      <c r="Z120" s="6" t="s">
+      <c r="AA120" s="6" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="121" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G121" t="s">
+    <row r="121" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H121" t="s">
         <v>1097</v>
       </c>
-      <c r="M121" t="s">
+      <c r="N121" t="s">
         <v>518</v>
       </c>
-      <c r="O121" t="s">
+      <c r="P121" t="s">
         <v>519</v>
       </c>
-      <c r="R121" t="s">
+      <c r="S121" t="s">
         <v>520</v>
       </c>
-      <c r="Z121" s="6" t="s">
+      <c r="AA121" s="6" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="122" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G122" t="s">
+    <row r="122" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H122" t="s">
         <v>1098</v>
       </c>
-      <c r="M122" t="s">
+      <c r="N122" t="s">
         <v>522</v>
       </c>
-      <c r="O122" t="s">
+      <c r="P122" t="s">
         <v>523</v>
       </c>
-      <c r="R122" t="s">
+      <c r="S122" t="s">
         <v>524</v>
       </c>
-      <c r="Z122" s="6" t="s">
+      <c r="AA122" s="6" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="123" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G123" t="s">
+    <row r="123" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H123" t="s">
         <v>1099</v>
       </c>
-      <c r="M123" t="s">
+      <c r="N123" t="s">
         <v>526</v>
       </c>
-      <c r="O123" t="s">
+      <c r="P123" t="s">
         <v>527</v>
       </c>
-      <c r="R123" t="s">
+      <c r="S123" t="s">
         <v>528</v>
       </c>
-      <c r="Z123" s="6" t="s">
+      <c r="AA123" s="6" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="124" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G124" t="s">
+    <row r="124" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H124" t="s">
         <v>1100</v>
       </c>
-      <c r="M124" t="s">
+      <c r="N124" t="s">
         <v>530</v>
       </c>
-      <c r="O124" t="s">
+      <c r="P124" t="s">
         <v>531</v>
       </c>
-      <c r="R124" t="s">
+      <c r="S124" t="s">
         <v>532</v>
       </c>
-      <c r="Z124" s="6" t="s">
+      <c r="AA124" s="6" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="125" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G125" t="s">
+    <row r="125" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H125" t="s">
         <v>1101</v>
       </c>
-      <c r="M125" t="s">
+      <c r="N125" t="s">
         <v>534</v>
       </c>
-      <c r="O125" t="s">
+      <c r="P125" t="s">
         <v>535</v>
       </c>
-      <c r="R125" t="s">
+      <c r="S125" t="s">
         <v>536</v>
       </c>
-      <c r="Z125" s="6" t="s">
+      <c r="AA125" s="6" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="126" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G126" t="s">
+    <row r="126" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H126" t="s">
         <v>1102</v>
       </c>
-      <c r="M126" t="s">
+      <c r="N126" t="s">
         <v>538</v>
       </c>
-      <c r="O126" t="s">
+      <c r="P126" t="s">
         <v>539</v>
       </c>
-      <c r="R126" t="s">
+      <c r="S126" t="s">
         <v>540</v>
       </c>
-      <c r="Z126" s="6" t="s">
+      <c r="AA126" s="6" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="127" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G127" t="s">
+    <row r="127" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H127" t="s">
         <v>1103</v>
       </c>
-      <c r="M127" t="s">
+      <c r="N127" t="s">
         <v>542</v>
       </c>
-      <c r="O127" t="s">
+      <c r="P127" t="s">
         <v>543</v>
       </c>
-      <c r="R127" t="s">
+      <c r="S127" t="s">
         <v>544</v>
       </c>
-      <c r="Z127" s="6" t="s">
+      <c r="AA127" s="6" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="128" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G128" t="s">
+    <row r="128" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H128" t="s">
         <v>1104</v>
       </c>
-      <c r="M128" t="s">
+      <c r="N128" t="s">
         <v>546</v>
       </c>
-      <c r="O128" t="s">
+      <c r="P128" t="s">
         <v>547</v>
       </c>
-      <c r="R128" t="s">
+      <c r="S128" t="s">
         <v>548</v>
       </c>
-      <c r="Z128" s="6" t="s">
+      <c r="AA128" s="6" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="129" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G129" t="s">
+    <row r="129" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H129" t="s">
         <v>1105</v>
       </c>
-      <c r="M129" t="s">
+      <c r="N129" t="s">
         <v>550</v>
       </c>
-      <c r="O129" t="s">
+      <c r="P129" t="s">
         <v>551</v>
       </c>
-      <c r="R129" t="s">
+      <c r="S129" t="s">
         <v>552</v>
       </c>
-      <c r="Z129" s="6" t="s">
+      <c r="AA129" s="6" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="130" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G130" t="s">
+    <row r="130" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H130" t="s">
         <v>1106</v>
       </c>
-      <c r="M130" t="s">
+      <c r="N130" t="s">
         <v>554</v>
       </c>
-      <c r="O130" t="s">
+      <c r="P130" t="s">
         <v>555</v>
       </c>
-      <c r="R130" t="s">
+      <c r="S130" t="s">
         <v>556</v>
       </c>
-      <c r="Z130" s="6" t="s">
+      <c r="AA130" s="6" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="131" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G131" t="s">
+    <row r="131" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H131" t="s">
         <v>1107</v>
       </c>
-      <c r="M131" t="s">
+      <c r="N131" t="s">
         <v>558</v>
       </c>
-      <c r="O131" t="s">
+      <c r="P131" t="s">
         <v>559</v>
       </c>
-      <c r="R131" t="s">
+      <c r="S131" t="s">
         <v>560</v>
       </c>
-      <c r="Z131" s="6" t="s">
+      <c r="AA131" s="6" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="132" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G132" t="s">
+    <row r="132" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H132" t="s">
         <v>1108</v>
       </c>
-      <c r="M132" t="s">
+      <c r="N132" t="s">
         <v>562</v>
       </c>
-      <c r="O132" t="s">
+      <c r="P132" t="s">
         <v>563</v>
       </c>
-      <c r="R132" t="s">
+      <c r="S132" t="s">
         <v>564</v>
       </c>
-      <c r="Z132" s="6" t="s">
+      <c r="AA132" s="6" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="133" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G133" t="s">
+    <row r="133" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H133" t="s">
         <v>1109</v>
       </c>
-      <c r="M133" t="s">
+      <c r="N133" t="s">
         <v>566</v>
       </c>
-      <c r="O133" t="s">
+      <c r="P133" t="s">
         <v>567</v>
       </c>
-      <c r="R133" t="s">
+      <c r="S133" t="s">
         <v>568</v>
       </c>
-      <c r="Z133" s="6" t="s">
+      <c r="AA133" s="6" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="134" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G134" t="s">
+    <row r="134" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H134" t="s">
         <v>1110</v>
       </c>
-      <c r="M134" t="s">
+      <c r="N134" t="s">
         <v>570</v>
       </c>
-      <c r="O134" t="s">
+      <c r="P134" t="s">
         <v>571</v>
       </c>
-      <c r="R134" t="s">
+      <c r="S134" t="s">
         <v>572</v>
       </c>
-      <c r="Z134" s="6" t="s">
+      <c r="AA134" s="6" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="135" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G135" t="s">
+    <row r="135" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H135" t="s">
         <v>1111</v>
       </c>
-      <c r="M135" t="s">
+      <c r="N135" t="s">
         <v>574</v>
       </c>
-      <c r="O135" t="s">
+      <c r="P135" t="s">
         <v>575</v>
       </c>
-      <c r="R135" t="s">
+      <c r="S135" t="s">
         <v>576</v>
       </c>
-      <c r="Z135" s="6" t="s">
+      <c r="AA135" s="6" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="136" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G136" t="s">
+    <row r="136" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H136" t="s">
         <v>1112</v>
       </c>
-      <c r="M136" t="s">
+      <c r="N136" t="s">
         <v>578</v>
       </c>
-      <c r="O136" t="s">
+      <c r="P136" t="s">
         <v>579</v>
       </c>
-      <c r="R136" t="s">
+      <c r="S136" t="s">
         <v>580</v>
       </c>
-      <c r="Z136" s="6" t="s">
+      <c r="AA136" s="6" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="137" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G137" t="s">
+    <row r="137" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H137" t="s">
         <v>1113</v>
       </c>
-      <c r="M137" t="s">
+      <c r="N137" t="s">
         <v>582</v>
       </c>
-      <c r="O137" t="s">
+      <c r="P137" t="s">
         <v>583</v>
       </c>
-      <c r="R137" t="s">
+      <c r="S137" t="s">
         <v>584</v>
       </c>
-      <c r="Z137" s="6" t="s">
+      <c r="AA137" s="6" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="138" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G138" t="s">
+    <row r="138" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H138" t="s">
         <v>1114</v>
       </c>
-      <c r="M138" t="s">
+      <c r="N138" t="s">
         <v>586</v>
       </c>
-      <c r="O138" t="s">
+      <c r="P138" t="s">
         <v>587</v>
       </c>
-      <c r="R138" t="s">
+      <c r="S138" t="s">
         <v>588</v>
       </c>
-      <c r="Z138" s="6" t="s">
+      <c r="AA138" s="6" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="139" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G139" t="s">
+    <row r="139" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H139" t="s">
         <v>1115</v>
       </c>
-      <c r="M139" t="s">
+      <c r="N139" t="s">
         <v>590</v>
       </c>
-      <c r="O139" t="s">
+      <c r="P139" t="s">
         <v>591</v>
       </c>
-      <c r="Z139" s="6" t="s">
+      <c r="AA139" s="6" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="140" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G140" t="s">
+    <row r="140" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H140" t="s">
         <v>1116</v>
       </c>
-      <c r="M140" t="s">
+      <c r="N140" t="s">
         <v>593</v>
       </c>
-      <c r="O140" t="s">
+      <c r="P140" t="s">
         <v>594</v>
       </c>
-      <c r="Z140" s="6" t="s">
+      <c r="AA140" s="6" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="141" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G141" t="s">
+    <row r="141" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H141" t="s">
         <v>1117</v>
       </c>
-      <c r="M141" t="s">
+      <c r="N141" t="s">
         <v>596</v>
       </c>
-      <c r="O141" t="s">
+      <c r="P141" t="s">
         <v>597</v>
       </c>
-      <c r="Z141" s="6" t="s">
+      <c r="AA141" s="6" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="142" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G142" t="s">
+    <row r="142" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H142" t="s">
         <v>1118</v>
       </c>
-      <c r="M142" t="s">
+      <c r="N142" t="s">
         <v>599</v>
       </c>
-      <c r="O142" t="s">
+      <c r="P142" t="s">
         <v>600</v>
       </c>
-      <c r="Z142" s="6" t="s">
+      <c r="AA142" s="6" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="143" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G143" t="s">
+    <row r="143" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H143" t="s">
         <v>1119</v>
       </c>
-      <c r="M143" t="s">
+      <c r="N143" t="s">
         <v>602</v>
       </c>
-      <c r="O143" t="s">
+      <c r="P143" t="s">
         <v>603</v>
       </c>
-      <c r="Z143" s="6" t="s">
+      <c r="AA143" s="6" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="144" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G144" t="s">
+    <row r="144" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H144" t="s">
         <v>1120</v>
       </c>
-      <c r="M144" t="s">
+      <c r="N144" t="s">
         <v>605</v>
       </c>
-      <c r="O144" t="s">
+      <c r="P144" t="s">
         <v>606</v>
       </c>
-      <c r="Z144" s="6" t="s">
+      <c r="AA144" s="6" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="145" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G145" t="s">
+    <row r="145" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H145" t="s">
         <v>1121</v>
       </c>
-      <c r="M145" t="s">
+      <c r="N145" t="s">
         <v>608</v>
       </c>
-      <c r="O145" t="s">
+      <c r="P145" t="s">
         <v>609</v>
       </c>
-      <c r="Z145" s="6" t="s">
+      <c r="AA145" s="6" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="146" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G146" t="s">
+    <row r="146" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H146" t="s">
         <v>1122</v>
       </c>
-      <c r="M146" t="s">
+      <c r="N146" t="s">
         <v>611</v>
       </c>
-      <c r="O146" t="s">
+      <c r="P146" t="s">
         <v>612</v>
       </c>
-      <c r="Z146" s="6" t="s">
+      <c r="AA146" s="6" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="147" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G147" t="s">
+    <row r="147" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H147" t="s">
         <v>1123</v>
       </c>
-      <c r="M147" t="s">
+      <c r="N147" t="s">
         <v>614</v>
       </c>
-      <c r="O147" t="s">
+      <c r="P147" t="s">
         <v>615</v>
       </c>
-      <c r="Z147" s="6" t="s">
+      <c r="AA147" s="6" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="148" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G148" t="s">
+    <row r="148" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H148" t="s">
         <v>1124</v>
       </c>
-      <c r="M148" t="s">
+      <c r="N148" t="s">
         <v>617</v>
       </c>
-      <c r="O148" t="s">
+      <c r="P148" t="s">
         <v>618</v>
       </c>
-      <c r="Z148" s="6" t="s">
+      <c r="AA148" s="6" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="149" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G149" t="s">
+    <row r="149" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H149" t="s">
         <v>1125</v>
       </c>
-      <c r="M149" t="s">
+      <c r="N149" t="s">
         <v>620</v>
       </c>
-      <c r="O149" t="s">
+      <c r="P149" t="s">
         <v>621</v>
       </c>
-      <c r="Z149" s="6" t="s">
+      <c r="AA149" s="6" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="150" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G150" t="s">
+    <row r="150" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H150" t="s">
         <v>1126</v>
       </c>
-      <c r="M150" t="s">
+      <c r="N150" t="s">
         <v>623</v>
       </c>
-      <c r="O150" t="s">
+      <c r="P150" t="s">
         <v>624</v>
       </c>
-      <c r="Z150" s="6" t="s">
+      <c r="AA150" s="6" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="151" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G151" t="s">
+    <row r="151" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H151" t="s">
         <v>1127</v>
       </c>
-      <c r="M151" t="s">
+      <c r="N151" t="s">
         <v>626</v>
       </c>
-      <c r="O151" t="s">
+      <c r="P151" t="s">
         <v>627</v>
       </c>
-      <c r="Z151" s="6" t="s">
+      <c r="AA151" s="6" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="152" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G152" t="s">
+    <row r="152" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H152" t="s">
         <v>1128</v>
       </c>
-      <c r="M152" t="s">
+      <c r="N152" t="s">
         <v>629</v>
       </c>
-      <c r="O152" t="s">
+      <c r="P152" t="s">
         <v>630</v>
       </c>
-      <c r="Z152" s="6" t="s">
+      <c r="AA152" s="6" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="153" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G153" t="s">
+    <row r="153" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H153" t="s">
         <v>1129</v>
       </c>
-      <c r="M153" t="s">
+      <c r="N153" t="s">
         <v>632</v>
       </c>
-      <c r="O153" t="s">
+      <c r="P153" t="s">
         <v>633</v>
       </c>
-      <c r="Z153" s="6" t="s">
+      <c r="AA153" s="6" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="154" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G154" t="s">
+    <row r="154" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H154" t="s">
         <v>1130</v>
       </c>
-      <c r="M154" t="s">
+      <c r="N154" t="s">
         <v>635</v>
       </c>
-      <c r="O154" t="s">
+      <c r="P154" t="s">
         <v>636</v>
       </c>
-      <c r="Z154" s="6" t="s">
+      <c r="AA154" s="6" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="155" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G155" t="s">
+    <row r="155" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H155" t="s">
         <v>1131</v>
       </c>
-      <c r="M155" t="s">
+      <c r="N155" t="s">
         <v>638</v>
       </c>
-      <c r="O155" t="s">
+      <c r="P155" t="s">
         <v>639</v>
       </c>
-      <c r="Z155" s="6" t="s">
+      <c r="AA155" s="6" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="156" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G156" t="s">
+    <row r="156" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H156" t="s">
         <v>1132</v>
       </c>
-      <c r="M156" t="s">
+      <c r="N156" t="s">
         <v>641</v>
       </c>
-      <c r="O156" t="s">
+      <c r="P156" t="s">
         <v>642</v>
       </c>
-      <c r="Z156" s="6" t="s">
+      <c r="AA156" s="6" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="157" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G157" t="s">
+    <row r="157" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H157" t="s">
         <v>1133</v>
       </c>
-      <c r="M157" t="s">
+      <c r="N157" t="s">
         <v>644</v>
       </c>
-      <c r="O157" t="s">
+      <c r="P157" t="s">
         <v>645</v>
       </c>
-      <c r="Z157" s="6" t="s">
+      <c r="AA157" s="6" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="158" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G158" t="s">
+    <row r="158" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H158" t="s">
         <v>1134</v>
       </c>
-      <c r="M158" t="s">
+      <c r="N158" t="s">
         <v>647</v>
       </c>
-      <c r="O158" t="s">
+      <c r="P158" t="s">
         <v>648</v>
       </c>
-      <c r="Z158" s="6" t="s">
+      <c r="AA158" s="6" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="159" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G159" t="s">
+    <row r="159" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H159" t="s">
         <v>1135</v>
       </c>
-      <c r="M159" t="s">
+      <c r="N159" t="s">
         <v>650</v>
       </c>
-      <c r="O159" t="s">
+      <c r="P159" t="s">
         <v>651</v>
       </c>
-      <c r="Z159" s="6" t="s">
+      <c r="AA159" s="6" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="160" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G160" t="s">
+    <row r="160" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H160" t="s">
         <v>1136</v>
       </c>
-      <c r="M160" t="s">
+      <c r="N160" t="s">
         <v>653</v>
       </c>
-      <c r="O160" t="s">
+      <c r="P160" t="s">
         <v>654</v>
       </c>
-      <c r="Z160" s="6" t="s">
+      <c r="AA160" s="6" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="161" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G161" t="s">
+    <row r="161" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H161" t="s">
         <v>1137</v>
       </c>
-      <c r="M161" t="s">
+      <c r="N161" t="s">
         <v>656</v>
       </c>
-      <c r="O161" t="s">
+      <c r="P161" t="s">
         <v>657</v>
       </c>
-      <c r="Z161" s="6" t="s">
+      <c r="AA161" s="6" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="162" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G162" t="s">
+    <row r="162" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H162" t="s">
         <v>1138</v>
       </c>
-      <c r="M162" t="s">
+      <c r="N162" t="s">
         <v>659</v>
       </c>
-      <c r="O162" t="s">
+      <c r="P162" t="s">
         <v>660</v>
       </c>
-      <c r="Z162" s="6" t="s">
+      <c r="AA162" s="6" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="163" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G163" t="s">
+    <row r="163" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H163" t="s">
         <v>1139</v>
       </c>
-      <c r="M163" t="s">
+      <c r="N163" t="s">
         <v>662</v>
       </c>
-      <c r="O163" t="s">
+      <c r="P163" t="s">
         <v>663</v>
       </c>
-      <c r="Z163" s="6" t="s">
+      <c r="AA163" s="6" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="164" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G164" t="s">
+    <row r="164" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H164" t="s">
         <v>1140</v>
       </c>
-      <c r="M164" t="s">
+      <c r="N164" t="s">
         <v>665</v>
       </c>
-      <c r="O164" t="s">
+      <c r="P164" t="s">
         <v>666</v>
       </c>
-      <c r="Z164" s="6" t="s">
+      <c r="AA164" s="6" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="165" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G165" t="s">
+    <row r="165" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H165" t="s">
         <v>1141</v>
       </c>
-      <c r="M165" t="s">
+      <c r="N165" t="s">
         <v>668</v>
       </c>
-      <c r="O165" t="s">
+      <c r="P165" t="s">
         <v>669</v>
       </c>
-      <c r="Z165" s="6" t="s">
+      <c r="AA165" s="6" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="166" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G166" t="s">
+    <row r="166" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H166" t="s">
         <v>1142</v>
       </c>
-      <c r="M166" t="s">
+      <c r="N166" t="s">
         <v>671</v>
       </c>
-      <c r="O166" t="s">
+      <c r="P166" t="s">
         <v>672</v>
       </c>
-      <c r="Z166" s="6" t="s">
+      <c r="AA166" s="6" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="167" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G167" t="s">
+    <row r="167" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H167" t="s">
         <v>1143</v>
       </c>
-      <c r="M167" t="s">
+      <c r="N167" t="s">
         <v>674</v>
       </c>
-      <c r="O167" t="s">
+      <c r="P167" t="s">
         <v>675</v>
       </c>
-      <c r="Z167" s="6" t="s">
+      <c r="AA167" s="6" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="168" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G168" t="s">
+    <row r="168" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H168" t="s">
         <v>1144</v>
       </c>
-      <c r="M168" t="s">
+      <c r="N168" t="s">
         <v>677</v>
       </c>
-      <c r="O168" t="s">
+      <c r="P168" t="s">
         <v>678</v>
       </c>
-      <c r="Z168" s="6" t="s">
+      <c r="AA168" s="6" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="169" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G169" t="s">
+    <row r="169" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H169" t="s">
         <v>1145</v>
       </c>
-      <c r="M169" t="s">
+      <c r="N169" t="s">
         <v>680</v>
       </c>
-      <c r="O169" t="s">
+      <c r="P169" t="s">
         <v>681</v>
       </c>
-      <c r="Z169" s="6" t="s">
+      <c r="AA169" s="6" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="170" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G170" t="s">
+    <row r="170" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H170" t="s">
         <v>1146</v>
       </c>
-      <c r="M170" t="s">
+      <c r="N170" t="s">
         <v>683</v>
       </c>
-      <c r="Z170" s="6" t="s">
+      <c r="AA170" s="6" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="171" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G171" t="s">
+    <row r="171" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H171" t="s">
         <v>1147</v>
       </c>
-      <c r="M171" t="s">
+      <c r="N171" t="s">
         <v>685</v>
       </c>
-      <c r="Z171" s="6" t="s">
+      <c r="AA171" s="6" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="172" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G172" t="s">
+    <row r="172" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H172" t="s">
         <v>1148</v>
       </c>
-      <c r="M172" t="s">
+      <c r="N172" t="s">
         <v>687</v>
       </c>
-      <c r="Z172" s="6" t="s">
+      <c r="AA172" s="6" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="173" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G173" t="s">
+    <row r="173" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H173" t="s">
         <v>1149</v>
       </c>
-      <c r="M173" t="s">
+      <c r="N173" t="s">
         <v>689</v>
       </c>
-      <c r="Z173" s="6" t="s">
+      <c r="AA173" s="6" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="174" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G174" t="s">
+    <row r="174" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H174" t="s">
         <v>1150</v>
       </c>
-      <c r="M174" t="s">
+      <c r="N174" t="s">
         <v>691</v>
       </c>
-      <c r="Z174" s="6" t="s">
+      <c r="AA174" s="6" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="175" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G175" t="s">
+    <row r="175" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H175" t="s">
         <v>1151</v>
       </c>
-      <c r="M175" t="s">
+      <c r="N175" t="s">
         <v>693</v>
       </c>
-      <c r="Z175" s="6" t="s">
+      <c r="AA175" s="6" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="176" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G176" t="s">
+    <row r="176" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H176" t="s">
         <v>1152</v>
       </c>
-      <c r="M176" t="s">
+      <c r="N176" t="s">
         <v>695</v>
       </c>
-      <c r="Z176" s="6" t="s">
+      <c r="AA176" s="6" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="177" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G177" t="s">
+    <row r="177" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H177" t="s">
         <v>1153</v>
       </c>
-      <c r="M177" t="s">
+      <c r="N177" t="s">
         <v>697</v>
       </c>
-      <c r="Z177" s="6" t="s">
+      <c r="AA177" s="6" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="178" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G178" t="s">
+    <row r="178" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H178" t="s">
         <v>1154</v>
       </c>
-      <c r="M178" t="s">
+      <c r="N178" t="s">
         <v>699</v>
       </c>
-      <c r="Z178" s="6" t="s">
+      <c r="AA178" s="6" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="179" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G179" t="s">
+    <row r="179" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H179" t="s">
         <v>1155</v>
       </c>
-      <c r="M179" t="s">
+      <c r="N179" t="s">
         <v>701</v>
       </c>
-      <c r="Z179" s="6" t="s">
+      <c r="AA179" s="6" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="180" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G180" t="s">
+    <row r="180" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H180" t="s">
         <v>1156</v>
       </c>
-      <c r="M180" t="s">
+      <c r="N180" t="s">
         <v>703</v>
       </c>
-      <c r="Z180" s="6" t="s">
+      <c r="AA180" s="6" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="181" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G181" t="s">
+    <row r="181" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H181" t="s">
         <v>1157</v>
       </c>
-      <c r="M181" t="s">
+      <c r="N181" t="s">
         <v>705</v>
       </c>
-      <c r="Z181" s="6" t="s">
+      <c r="AA181" s="6" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="182" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G182" t="s">
+    <row r="182" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H182" t="s">
         <v>1158</v>
       </c>
-      <c r="M182" t="s">
+      <c r="N182" t="s">
         <v>707</v>
       </c>
-      <c r="Z182" s="6" t="s">
+      <c r="AA182" s="6" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="183" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G183" t="s">
+    <row r="183" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H183" t="s">
         <v>1159</v>
       </c>
-      <c r="M183" t="s">
+      <c r="N183" t="s">
         <v>709</v>
       </c>
-      <c r="Z183" s="6" t="s">
+      <c r="AA183" s="6" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="184" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G184" t="s">
+    <row r="184" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H184" t="s">
         <v>1160</v>
       </c>
-      <c r="M184" t="s">
+      <c r="N184" t="s">
         <v>711</v>
       </c>
-      <c r="Z184" s="6" t="s">
+      <c r="AA184" s="6" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="185" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G185" t="s">
+    <row r="185" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H185" t="s">
         <v>1161</v>
       </c>
-      <c r="M185" t="s">
+      <c r="N185" t="s">
         <v>713</v>
       </c>
-      <c r="Z185" s="6" t="s">
+      <c r="AA185" s="6" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="186" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G186" t="s">
+    <row r="186" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H186" t="s">
         <v>1162</v>
       </c>
-      <c r="M186" t="s">
+      <c r="N186" t="s">
         <v>715</v>
       </c>
-      <c r="Z186" s="6" t="s">
+      <c r="AA186" s="6" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="187" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="M187" t="s">
+    <row r="187" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="N187" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="188" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="M188" t="s">
+    <row r="188" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="N188" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="189" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="M189" t="s">
+    <row r="189" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="N189" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="190" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="M190" t="s">
+    <row r="190" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="N190" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="191" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="M191" t="s">
+    <row r="191" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="N191" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="192" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="M192" t="s">
+    <row r="192" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="N192" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="193" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M193" t="s">
+    <row r="193" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N193" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="194" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M194" t="s">
+    <row r="194" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N194" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="195" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M195" t="s">
+    <row r="195" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N195" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="196" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M196" t="s">
+    <row r="196" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N196" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="197" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M197" t="s">
+    <row r="197" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N197" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="198" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M198" t="s">
+    <row r="198" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N198" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="199" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M199" t="s">
+    <row r="199" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N199" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="200" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M200" t="s">
+    <row r="200" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N200" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="201" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M201" t="s">
+    <row r="201" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N201" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="202" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M202" t="s">
+    <row r="202" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N202" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="203" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M203" t="s">
+    <row r="203" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N203" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="204" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M204" t="s">
+    <row r="204" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N204" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="205" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M205" t="s">
+    <row r="205" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N205" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="206" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M206" t="s">
+    <row r="206" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N206" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="207" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M207" t="s">
+    <row r="207" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N207" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="208" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M208" t="s">
+    <row r="208" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N208" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="209" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M209" t="s">
+    <row r="209" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N209" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="210" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M210" t="s">
+    <row r="210" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N210" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="211" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M211" t="s">
+    <row r="211" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N211" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="212" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M212" t="s">
+    <row r="212" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N212" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="213" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M213" t="s">
+    <row r="213" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N213" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="214" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M214" t="s">
+    <row r="214" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N214" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="215" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M215" t="s">
+    <row r="215" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N215" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="216" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M216" t="s">
+    <row r="216" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N216" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="217" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M217" t="s">
+    <row r="217" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N217" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="218" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M218" t="s">
+    <row r="218" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N218" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="219" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M219" t="s">
+    <row r="219" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N219" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="220" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M220" t="s">
+    <row r="220" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N220" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="221" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M221" t="s">
+    <row r="221" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N221" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="222" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M222" t="s">
+    <row r="222" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N222" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="223" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M223" t="s">
+    <row r="223" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N223" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="224" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M224" t="s">
+    <row r="224" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N224" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="225" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M225" t="s">
+    <row r="225" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N225" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="226" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M226" t="s">
+    <row r="226" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N226" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="227" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M227" t="s">
+    <row r="227" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N227" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="228" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M228" t="s">
+    <row r="228" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N228" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="229" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M229" t="s">
+    <row r="229" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N229" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="230" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M230" t="s">
+    <row r="230" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N230" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="231" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M231" t="s">
+    <row r="231" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N231" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="232" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M232" t="s">
+    <row r="232" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N232" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="233" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M233" t="s">
+    <row r="233" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N233" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="234" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M234" t="s">
+    <row r="234" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N234" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="235" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M235" t="s">
+    <row r="235" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N235" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="236" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M236" t="s">
+    <row r="236" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N236" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="237" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M237" t="s">
+    <row r="237" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N237" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="238" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M238" t="s">
+    <row r="238" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N238" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="239" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M239" t="s">
+    <row r="239" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N239" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="240" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M240" t="s">
+    <row r="240" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N240" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="241" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M241" t="s">
+    <row r="241" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N241" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="242" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M242" t="s">
+    <row r="242" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N242" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="243" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M243" t="s">
+    <row r="243" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N243" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="244" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M244" t="s">
+    <row r="244" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N244" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="245" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M245" t="s">
+    <row r="245" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N245" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="246" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M246" t="s">
+    <row r="246" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N246" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="247" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M247" t="s">
+    <row r="247" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N247" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="248" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M248" t="s">
+    <row r="248" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N248" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="249" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M249" t="s">
+    <row r="249" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N249" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="250" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M250" t="s">
+    <row r="250" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N250" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="251" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M251" t="s">
+    <row r="251" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N251" t="s">
         <v>781</v>
       </c>
     </row>
